--- a/Code/Results/Cases/Case_4_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_56/res_bus/vm_pu.xlsx
@@ -417,192 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>0.9961955410726988</v>
+      </c>
+      <c r="D2">
+        <v>1.017378921427439</v>
+      </c>
+      <c r="E2">
+        <v>1.004397003747632</v>
+      </c>
+      <c r="F2">
+        <v>1.017167892240388</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.041748795458257</v>
+      </c>
+      <c r="J2">
+        <v>1.018490641360057</v>
+      </c>
+      <c r="K2">
+        <v>1.028601335421047</v>
+      </c>
+      <c r="L2">
+        <v>1.015795419339192</v>
+      </c>
+      <c r="M2">
+        <v>1.028393122135376</v>
+      </c>
+      <c r="N2">
+        <v>1.019937014893294</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.001637121903976</v>
+      </c>
+      <c r="D3">
+        <v>1.02155604944548</v>
+      </c>
+      <c r="E3">
+        <v>1.00932351836891</v>
+      </c>
+      <c r="F3">
+        <v>1.022133056190434</v>
+      </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.043050876058922</v>
+      </c>
+      <c r="J3">
+        <v>1.022083256601192</v>
+      </c>
+      <c r="K3">
+        <v>1.031920350247875</v>
+      </c>
+      <c r="L3">
+        <v>1.019838476931352</v>
+      </c>
+      <c r="M3">
+        <v>1.032490361122801</v>
+      </c>
+      <c r="N3">
+        <v>1.023534732060154</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.005077043604232</v>
+      </c>
+      <c r="D4">
+        <v>1.024198762249554</v>
+      </c>
+      <c r="E4">
+        <v>1.012443726458168</v>
+      </c>
+      <c r="F4">
+        <v>1.025277188916449</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.043862541290672</v>
+      </c>
+      <c r="J4">
+        <v>1.024351763714594</v>
+      </c>
+      <c r="K4">
+        <v>1.03401364520197</v>
+      </c>
+      <c r="L4">
+        <v>1.022394251191053</v>
+      </c>
+      <c r="M4">
+        <v>1.035079819941154</v>
+      </c>
+      <c r="N4">
+        <v>1.025806460713859</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.006504582410104</v>
+      </c>
+      <c r="D5">
+        <v>1.025295898438872</v>
+      </c>
+      <c r="E5">
+        <v>1.013739950925554</v>
+      </c>
+      <c r="F5">
+        <v>1.026583205253671</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.044196577420539</v>
+      </c>
+      <c r="J5">
+        <v>1.025292509863463</v>
+      </c>
+      <c r="K5">
+        <v>1.034881122890266</v>
+      </c>
+      <c r="L5">
+        <v>1.023454813103882</v>
+      </c>
+      <c r="M5">
+        <v>1.036154210439056</v>
+      </c>
+      <c r="N5">
+        <v>1.026748542830163</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.006743204476414</v>
+      </c>
+      <c r="D6">
+        <v>1.025479314896878</v>
+      </c>
+      <c r="E6">
+        <v>1.013956701812204</v>
+      </c>
+      <c r="F6">
+        <v>1.026801584459665</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.044252247698479</v>
+      </c>
+      <c r="J6">
+        <v>1.025449721064521</v>
+      </c>
+      <c r="K6">
+        <v>1.035026053613117</v>
+      </c>
+      <c r="L6">
+        <v>1.023632087624079</v>
+      </c>
+      <c r="M6">
+        <v>1.036333787257154</v>
+      </c>
+      <c r="N6">
+        <v>1.02690597728916</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.005096190498121</v>
+      </c>
+      <c r="D7">
+        <v>1.024213476000849</v>
+      </c>
+      <c r="E7">
+        <v>1.012461106766321</v>
+      </c>
+      <c r="F7">
+        <v>1.025294701117472</v>
+      </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.043867032682619</v>
+      </c>
+      <c r="J7">
+        <v>1.024364384180942</v>
+      </c>
+      <c r="K7">
+        <v>1.034025285175325</v>
+      </c>
+      <c r="L7">
+        <v>1.022408476310479</v>
+      </c>
+      <c r="M7">
+        <v>1.035094231148967</v>
+      </c>
+      <c r="N7">
+        <v>1.025819099102717</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9980518613437134</v>
+      </c>
+      <c r="D8">
+        <v>1.018803397491258</v>
+      </c>
+      <c r="E8">
+        <v>1.006076348703655</v>
+      </c>
+      <c r="F8">
+        <v>1.018860519242307</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.042195356625443</v>
+      </c>
+      <c r="J8">
+        <v>1.019716726283308</v>
+      </c>
+      <c r="K8">
+        <v>1.029734548983346</v>
+      </c>
+      <c r="L8">
+        <v>1.017174636293478</v>
+      </c>
+      <c r="M8">
+        <v>1.029790932369803</v>
+      </c>
+      <c r="N8">
+        <v>1.021164840997773</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9849777088621031</v>
+      </c>
+      <c r="D9">
+        <v>1.008783148974164</v>
+      </c>
+      <c r="E9">
+        <v>0.9942759254195065</v>
+      </c>
+      <c r="F9">
+        <v>1.00696503413154</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.03900349628001</v>
+      </c>
+      <c r="J9">
+        <v>1.011072328068222</v>
+      </c>
+      <c r="K9">
+        <v>1.021735315050389</v>
+      </c>
+      <c r="L9">
+        <v>1.00746255948115</v>
+      </c>
+      <c r="M9">
+        <v>1.019946110287913</v>
+      </c>
+      <c r="N9">
+        <v>1.012508166745696</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9757569762071322</v>
+      </c>
+      <c r="D10">
+        <v>1.001736026642579</v>
+      </c>
+      <c r="E10">
+        <v>0.9859908898911822</v>
+      </c>
+      <c r="F10">
+        <v>0.9986118001050187</v>
+      </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.036695344162002</v>
+      </c>
+      <c r="J10">
+        <v>1.004966596780755</v>
+      </c>
+      <c r="K10">
+        <v>1.016074007176505</v>
+      </c>
+      <c r="L10">
+        <v>1.000617775285488</v>
+      </c>
+      <c r="M10">
+        <v>1.013006164246684</v>
+      </c>
+      <c r="N10">
+        <v>1.006393764619464</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9716296683104859</v>
+      </c>
+      <c r="D11">
+        <v>0.9985877377670725</v>
+      </c>
+      <c r="E11">
+        <v>0.982292201765828</v>
+      </c>
+      <c r="F11">
+        <v>0.9948825815065986</v>
+      </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.0356494819644</v>
+      </c>
+      <c r="J11">
+        <v>1.00223223974452</v>
+      </c>
+      <c r="K11">
+        <v>1.01353633651983</v>
+      </c>
+      <c r="L11">
+        <v>0.9975559700655696</v>
+      </c>
+      <c r="M11">
+        <v>1.009901654451829</v>
+      </c>
+      <c r="N11">
+        <v>1.003655524482602</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.970074963705423</v>
+      </c>
+      <c r="D12">
+        <v>0.997402858609074</v>
+      </c>
+      <c r="E12">
+        <v>0.9809005086479683</v>
+      </c>
+      <c r="F12">
+        <v>0.9934794122687751</v>
+      </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.035253685249684</v>
+      </c>
+      <c r="J12">
+        <v>1.001202111900023</v>
+      </c>
+      <c r="K12">
+        <v>1.012579985472502</v>
+      </c>
+      <c r="L12">
+        <v>0.9964030065098348</v>
+      </c>
+      <c r="M12">
+        <v>1.008732611830993</v>
+      </c>
+      <c r="N12">
+        <v>1.002623933738409</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9704094562856845</v>
+      </c>
+      <c r="D13">
+        <v>0.9976577345801653</v>
+      </c>
+      <c r="E13">
+        <v>0.9811998578286095</v>
+      </c>
+      <c r="F13">
+        <v>0.9937812290023986</v>
+      </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.035338921935555</v>
+      </c>
+      <c r="J13">
+        <v>1.001423747139235</v>
+      </c>
+      <c r="K13">
+        <v>1.012785761438249</v>
+      </c>
+      <c r="L13">
+        <v>0.9966510465711438</v>
+      </c>
+      <c r="M13">
+        <v>1.008984110559334</v>
+      </c>
+      <c r="N13">
+        <v>1.002845883725082</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9715016059456522</v>
+      </c>
+      <c r="D14">
+        <v>0.9984901163313746</v>
+      </c>
+      <c r="E14">
+        <v>0.9821775346879454</v>
+      </c>
+      <c r="F14">
+        <v>0.9947669684866357</v>
+      </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.035616916638628</v>
+      </c>
+      <c r="J14">
+        <v>1.002147389420832</v>
+      </c>
+      <c r="K14">
+        <v>1.013457569454923</v>
+      </c>
+      <c r="L14">
+        <v>0.9974609912718899</v>
+      </c>
+      <c r="M14">
+        <v>1.009805350923528</v>
+      </c>
+      <c r="N14">
+        <v>1.003570553661722</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9721716038610277</v>
+      </c>
+      <c r="D15">
+        <v>0.9990008962847559</v>
+      </c>
+      <c r="E15">
+        <v>0.9827775148893925</v>
+      </c>
+      <c r="F15">
+        <v>0.9953718988203996</v>
+      </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.035787218012865</v>
+      </c>
+      <c r="J15">
+        <v>1.0025913053151</v>
+      </c>
+      <c r="K15">
+        <v>1.013869646322162</v>
+      </c>
+      <c r="L15">
+        <v>0.9979579181869754</v>
+      </c>
+      <c r="M15">
+        <v>1.010309209035945</v>
+      </c>
+      <c r="N15">
+        <v>1.004015099967478</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9760279375211066</v>
+      </c>
+      <c r="D16">
+        <v>1.001942851545696</v>
+      </c>
+      <c r="E16">
+        <v>0.9862339225057106</v>
+      </c>
+      <c r="F16">
+        <v>0.9988568390466737</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>1.036763748005205</v>
+      </c>
+      <c r="J16">
+        <v>1.005146087532064</v>
+      </c>
+      <c r="K16">
+        <v>1.0162405407021</v>
+      </c>
+      <c r="L16">
+        <v>1.000818833563967</v>
+      </c>
+      <c r="M16">
+        <v>1.013210025801176</v>
+      </c>
+      <c r="N16">
+        <v>1.006573510268228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.978409904857798</v>
+      </c>
+      <c r="D17">
+        <v>1.003761713673215</v>
+      </c>
+      <c r="E17">
+        <v>0.9883714951535798</v>
+      </c>
+      <c r="F17">
+        <v>1.001012051293137</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>1.037363639089501</v>
+      </c>
+      <c r="J17">
+        <v>1.006723809327224</v>
+      </c>
+      <c r="K17">
+        <v>1.01770410634093</v>
+      </c>
+      <c r="L17">
+        <v>1.002586533224973</v>
+      </c>
+      <c r="M17">
+        <v>1.015002358823377</v>
+      </c>
+      <c r="N17">
+        <v>1.008153472609304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9797863738104929</v>
+      </c>
+      <c r="D18">
+        <v>1.004813347522309</v>
+      </c>
+      <c r="E18">
+        <v>0.9896076557915295</v>
+      </c>
+      <c r="F18">
+        <v>1.002258403231299</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>1.037709091540061</v>
+      </c>
+      <c r="J18">
+        <v>1.007635394642088</v>
+      </c>
+      <c r="K18">
+        <v>1.018549510359068</v>
+      </c>
+      <c r="L18">
+        <v>1.003608218675153</v>
+      </c>
+      <c r="M18">
+        <v>1.016038267230662</v>
+      </c>
+      <c r="N18">
+        <v>1.009066352479875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9802535680706775</v>
+      </c>
+      <c r="D19">
+        <v>1.005170380380159</v>
+      </c>
+      <c r="E19">
+        <v>0.9900273809680584</v>
+      </c>
+      <c r="F19">
+        <v>1.002681586419876</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.037826136390895</v>
+      </c>
+      <c r="J19">
+        <v>1.007944775590764</v>
+      </c>
+      <c r="K19">
+        <v>1.018836391408869</v>
+      </c>
+      <c r="L19">
+        <v>1.003955022983563</v>
+      </c>
+      <c r="M19">
+        <v>1.016389896324911</v>
+      </c>
+      <c r="N19">
+        <v>1.009376172784985</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9781556855776909</v>
+      </c>
+      <c r="D20">
+        <v>1.003567532980538</v>
+      </c>
+      <c r="E20">
+        <v>0.988143263182785</v>
+      </c>
+      <c r="F20">
+        <v>1.000781936755365</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>1.03729973952483</v>
+      </c>
+      <c r="J20">
+        <v>1.006555437815855</v>
+      </c>
+      <c r="K20">
+        <v>1.017547940353712</v>
+      </c>
+      <c r="L20">
+        <v>1.002397853028415</v>
+      </c>
+      <c r="M20">
+        <v>1.014811050668972</v>
+      </c>
+      <c r="N20">
+        <v>1.007984861991075</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9711806043546751</v>
+      </c>
+      <c r="D21">
+        <v>0.9982454352977809</v>
+      </c>
+      <c r="E21">
+        <v>0.9818901351200787</v>
+      </c>
+      <c r="F21">
+        <v>0.9944771982966026</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>1.035535259017669</v>
+      </c>
+      <c r="J21">
+        <v>1.001934701455325</v>
+      </c>
+      <c r="K21">
+        <v>1.013260124863435</v>
+      </c>
+      <c r="L21">
+        <v>0.9972229234729818</v>
+      </c>
+      <c r="M21">
+        <v>1.009563962739227</v>
+      </c>
+      <c r="N21">
+        <v>1.003357563654908</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9666691074111837</v>
+      </c>
+      <c r="D22">
+        <v>0.9948092357159087</v>
+      </c>
+      <c r="E22">
+        <v>0.9778547213163101</v>
+      </c>
+      <c r="F22">
+        <v>0.9904085584449541</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>1.03438333412654</v>
+      </c>
+      <c r="J22">
+        <v>0.9989452808918078</v>
+      </c>
+      <c r="K22">
+        <v>1.010484228796911</v>
+      </c>
+      <c r="L22">
+        <v>0.993878026618034</v>
+      </c>
+      <c r="M22">
+        <v>1.00617244870936</v>
+      </c>
+      <c r="N22">
+        <v>1.000363897771299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9690731828751025</v>
+      </c>
+      <c r="D23">
+        <v>0.9966396865904885</v>
+      </c>
+      <c r="E23">
+        <v>0.9800042146337028</v>
+      </c>
+      <c r="F23">
+        <v>0.992575733701025</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>1.034998144912899</v>
+      </c>
+      <c r="J23">
+        <v>1.000538317467366</v>
+      </c>
+      <c r="K23">
+        <v>1.01196364457569</v>
+      </c>
+      <c r="L23">
+        <v>0.995660206702801</v>
+      </c>
+      <c r="M23">
+        <v>1.007979456533317</v>
+      </c>
+      <c r="N23">
+        <v>1.001959196641519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9782705960649674</v>
+      </c>
+      <c r="D24">
+        <v>1.00365530348066</v>
+      </c>
+      <c r="E24">
+        <v>0.9882464242129877</v>
+      </c>
+      <c r="F24">
+        <v>1.000885948739213</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>1.03732862672603</v>
+      </c>
+      <c r="J24">
+        <v>1.006631544393285</v>
+      </c>
+      <c r="K24">
+        <v>1.017618530537454</v>
+      </c>
+      <c r="L24">
+        <v>1.002483138416309</v>
+      </c>
+      <c r="M24">
+        <v>1.014897523967479</v>
+      </c>
+      <c r="N24">
+        <v>1.008061076648575</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9884419318271445</v>
+      </c>
+      <c r="D25">
+        <v>1.011435217412065</v>
+      </c>
+      <c r="E25">
+        <v>0.9973965187917246</v>
+      </c>
+      <c r="F25">
+        <v>1.010111097148447</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.039859285748039</v>
+      </c>
+      <c r="J25">
+        <v>1.013364631644789</v>
+      </c>
+      <c r="K25">
+        <v>1.023858572529812</v>
+      </c>
+      <c r="L25">
+        <v>1.010035385345556</v>
+      </c>
+      <c r="M25">
+        <v>1.022554453179498</v>
+      </c>
+      <c r="N25">
+        <v>1.014803725656273</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_56/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9961955410726988</v>
+        <v>1.03427420202738</v>
       </c>
       <c r="D2">
-        <v>1.017378921427439</v>
+        <v>1.041365459208463</v>
       </c>
       <c r="E2">
-        <v>1.004397003747632</v>
+        <v>1.037918556866448</v>
       </c>
       <c r="F2">
-        <v>1.017167892240388</v>
+        <v>1.048674377599796</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041748795458257</v>
+        <v>1.033796666875025</v>
       </c>
       <c r="J2">
-        <v>1.018490641360057</v>
+        <v>1.039394344286892</v>
       </c>
       <c r="K2">
-        <v>1.028601335421047</v>
+        <v>1.04414517993126</v>
       </c>
       <c r="L2">
-        <v>1.015795419339192</v>
+        <v>1.040708070665837</v>
       </c>
       <c r="M2">
-        <v>1.028393122135376</v>
+        <v>1.051433563782909</v>
       </c>
       <c r="N2">
-        <v>1.019937014893294</v>
+        <v>1.040870403475977</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.001637121903976</v>
+        <v>1.035413281770566</v>
       </c>
       <c r="D3">
-        <v>1.02155604944548</v>
+        <v>1.042257216117441</v>
       </c>
       <c r="E3">
-        <v>1.00932351836891</v>
+        <v>1.039006164679349</v>
       </c>
       <c r="F3">
-        <v>1.022133056190434</v>
+        <v>1.049765546586225</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043050876058922</v>
+        <v>1.033997551711782</v>
       </c>
       <c r="J3">
-        <v>1.022083256601192</v>
+        <v>1.040175527966717</v>
       </c>
       <c r="K3">
-        <v>1.031920350247875</v>
+        <v>1.044847336605564</v>
       </c>
       <c r="L3">
-        <v>1.019838476931352</v>
+        <v>1.041604850660635</v>
       </c>
       <c r="M3">
-        <v>1.032490361122801</v>
+        <v>1.052336103849365</v>
       </c>
       <c r="N3">
-        <v>1.023534732060154</v>
+        <v>1.041652696526231</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005077043604232</v>
+        <v>1.036150417961636</v>
       </c>
       <c r="D4">
-        <v>1.024198762249554</v>
+        <v>1.042834079777768</v>
       </c>
       <c r="E4">
-        <v>1.012443726458168</v>
+        <v>1.039710354654507</v>
       </c>
       <c r="F4">
-        <v>1.025277188916449</v>
+        <v>1.050471906939601</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043862541290672</v>
+        <v>1.034126084261762</v>
       </c>
       <c r="J4">
-        <v>1.024351763714594</v>
+        <v>1.040680554787859</v>
       </c>
       <c r="K4">
-        <v>1.03401364520197</v>
+        <v>1.045300883760595</v>
       </c>
       <c r="L4">
-        <v>1.022394251191053</v>
+        <v>1.042184972316799</v>
       </c>
       <c r="M4">
-        <v>1.035079819941154</v>
+        <v>1.052919816273814</v>
       </c>
       <c r="N4">
-        <v>1.025806460713859</v>
+        <v>1.042158440543385</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.006504582410104</v>
+        <v>1.036460329013563</v>
       </c>
       <c r="D5">
-        <v>1.025295898438872</v>
+        <v>1.04307655424501</v>
       </c>
       <c r="E5">
-        <v>1.013739950925554</v>
+        <v>1.040006500622412</v>
       </c>
       <c r="F5">
-        <v>1.026583205253671</v>
+        <v>1.050768933130318</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044196577420539</v>
+        <v>1.034179771317323</v>
       </c>
       <c r="J5">
-        <v>1.025292509863463</v>
+        <v>1.040892760305759</v>
       </c>
       <c r="K5">
-        <v>1.034881122890266</v>
+        <v>1.045491364683521</v>
       </c>
       <c r="L5">
-        <v>1.023454813103882</v>
+        <v>1.042428818672646</v>
       </c>
       <c r="M5">
-        <v>1.036154210439056</v>
+        <v>1.053165139402035</v>
       </c>
       <c r="N5">
-        <v>1.026748542830163</v>
+        <v>1.042370947417462</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.006743204476414</v>
+        <v>1.036512365584242</v>
       </c>
       <c r="D6">
-        <v>1.025479314896878</v>
+        <v>1.043117264485134</v>
       </c>
       <c r="E6">
-        <v>1.013956701812204</v>
+        <v>1.040056230972208</v>
       </c>
       <c r="F6">
-        <v>1.026801584459665</v>
+        <v>1.050818809380879</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044252247698479</v>
+        <v>1.034188765199069</v>
       </c>
       <c r="J6">
-        <v>1.025449721064521</v>
+        <v>1.040928384234975</v>
       </c>
       <c r="K6">
-        <v>1.035026053613117</v>
+        <v>1.04552333611112</v>
       </c>
       <c r="L6">
-        <v>1.023632087624079</v>
+        <v>1.042469759400537</v>
       </c>
       <c r="M6">
-        <v>1.036333787257154</v>
+        <v>1.053206326159912</v>
       </c>
       <c r="N6">
-        <v>1.02690597728916</v>
+        <v>1.042406621936743</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.005096190498121</v>
+        <v>1.036154558932451</v>
       </c>
       <c r="D7">
-        <v>1.024213476000849</v>
+        <v>1.042837319886862</v>
       </c>
       <c r="E7">
-        <v>1.012461106766321</v>
+        <v>1.039714311360345</v>
       </c>
       <c r="F7">
-        <v>1.025294701117472</v>
+        <v>1.050475875533735</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043867032682619</v>
+        <v>1.03412680299845</v>
       </c>
       <c r="J7">
-        <v>1.024364384180942</v>
+        <v>1.040683390711449</v>
       </c>
       <c r="K7">
-        <v>1.034025285175325</v>
+        <v>1.04530342972369</v>
       </c>
       <c r="L7">
-        <v>1.022408476310479</v>
+        <v>1.042188230747906</v>
       </c>
       <c r="M7">
-        <v>1.035094231148967</v>
+        <v>1.052923094566627</v>
       </c>
       <c r="N7">
-        <v>1.025819099102717</v>
+        <v>1.042161280494312</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9980518613437134</v>
+        <v>1.034659144306408</v>
       </c>
       <c r="D8">
-        <v>1.018803397491258</v>
+        <v>1.041666866277503</v>
       </c>
       <c r="E8">
-        <v>1.006076348703655</v>
+        <v>1.038286029169804</v>
       </c>
       <c r="F8">
-        <v>1.018860519242307</v>
+        <v>1.049043081068038</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042195356625443</v>
+        <v>1.033864857723645</v>
       </c>
       <c r="J8">
-        <v>1.019716726283308</v>
+        <v>1.03965844256966</v>
       </c>
       <c r="K8">
-        <v>1.029734548983346</v>
+        <v>1.044382641749613</v>
       </c>
       <c r="L8">
-        <v>1.017174636293478</v>
+        <v>1.041011173937972</v>
       </c>
       <c r="M8">
-        <v>1.029790932369803</v>
+        <v>1.051738641855523</v>
       </c>
       <c r="N8">
-        <v>1.021164840997773</v>
+        <v>1.041134876808599</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9849777088621031</v>
+        <v>1.032024568046465</v>
       </c>
       <c r="D9">
-        <v>1.008783148974164</v>
+        <v>1.039603133810593</v>
       </c>
       <c r="E9">
-        <v>0.9942759254195065</v>
+        <v>1.035772528221528</v>
       </c>
       <c r="F9">
-        <v>1.00696503413154</v>
+        <v>1.046520609235137</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03900349628001</v>
+        <v>1.033392149250579</v>
       </c>
       <c r="J9">
-        <v>1.011072328068222</v>
+        <v>1.037848884211532</v>
       </c>
       <c r="K9">
-        <v>1.021735315050389</v>
+        <v>1.042754002329342</v>
       </c>
       <c r="L9">
-        <v>1.00746255948115</v>
+        <v>1.038935848220008</v>
       </c>
       <c r="M9">
-        <v>1.019946110287913</v>
+        <v>1.049649245096179</v>
       </c>
       <c r="N9">
-        <v>1.012508166745696</v>
+        <v>1.039322748670044</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9757569762071322</v>
+        <v>1.030268482115438</v>
       </c>
       <c r="D10">
-        <v>1.001736026642579</v>
+        <v>1.038226476145424</v>
       </c>
       <c r="E10">
-        <v>0.9859908898911822</v>
+        <v>1.034099063192146</v>
       </c>
       <c r="F10">
-        <v>0.9986118001050187</v>
+        <v>1.04484048637901</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036695344162002</v>
+        <v>1.033069532583194</v>
       </c>
       <c r="J10">
-        <v>1.004966596780755</v>
+        <v>1.036640159565608</v>
       </c>
       <c r="K10">
-        <v>1.016074007176505</v>
+        <v>1.04166413859853</v>
       </c>
       <c r="L10">
-        <v>1.000617775285488</v>
+        <v>1.037551467366822</v>
       </c>
       <c r="M10">
-        <v>1.013006164246684</v>
+        <v>1.048254793471264</v>
       </c>
       <c r="N10">
-        <v>1.006393764619464</v>
+        <v>1.038112307496479</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9716296683104859</v>
+        <v>1.029508133721428</v>
       </c>
       <c r="D11">
-        <v>0.9985877377670725</v>
+        <v>1.037630168934448</v>
       </c>
       <c r="E11">
-        <v>0.982292201765828</v>
+        <v>1.03337494991754</v>
       </c>
       <c r="F11">
-        <v>0.9948825815065986</v>
+        <v>1.044113331340214</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0356494819644</v>
+        <v>1.032928062795348</v>
       </c>
       <c r="J11">
-        <v>1.00223223974452</v>
+        <v>1.036116205222174</v>
       </c>
       <c r="K11">
-        <v>1.01353633651983</v>
+        <v>1.041191239683976</v>
       </c>
       <c r="L11">
-        <v>0.9975559700655696</v>
+        <v>1.036951812328442</v>
       </c>
       <c r="M11">
-        <v>1.009901654451829</v>
+        <v>1.047650615739737</v>
       </c>
       <c r="N11">
-        <v>1.003655524482602</v>
+        <v>1.03758760907778</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.970074963705423</v>
+        <v>1.029225712391968</v>
       </c>
       <c r="D12">
-        <v>0.997402858609074</v>
+        <v>1.037408642838897</v>
       </c>
       <c r="E12">
-        <v>0.9809005086479683</v>
+        <v>1.033106057657404</v>
       </c>
       <c r="F12">
-        <v>0.9934794122687751</v>
+        <v>1.043843285508089</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035253685249684</v>
+        <v>1.032875247966356</v>
       </c>
       <c r="J12">
-        <v>1.001202111900023</v>
+        <v>1.035921499275692</v>
       </c>
       <c r="K12">
-        <v>1.012579985472502</v>
+        <v>1.041015436314978</v>
       </c>
       <c r="L12">
-        <v>0.9964030065098348</v>
+        <v>1.036729041741522</v>
       </c>
       <c r="M12">
-        <v>1.008732611830993</v>
+        <v>1.0474261410282</v>
       </c>
       <c r="N12">
-        <v>1.002623933738409</v>
+        <v>1.03739262662652</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9704094562856845</v>
+        <v>1.029286292479737</v>
       </c>
       <c r="D13">
-        <v>0.9976577345801653</v>
+        <v>1.037456162346462</v>
       </c>
       <c r="E13">
-        <v>0.9811998578286095</v>
+        <v>1.033163732547681</v>
       </c>
       <c r="F13">
-        <v>0.9937812290023986</v>
+        <v>1.043901208914774</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035338921935555</v>
+        <v>1.03288658899347</v>
       </c>
       <c r="J13">
-        <v>1.001423747139235</v>
+        <v>1.035963268261505</v>
       </c>
       <c r="K13">
-        <v>1.012785761438249</v>
+        <v>1.041053153421212</v>
       </c>
       <c r="L13">
-        <v>0.9966510465711438</v>
+        <v>1.03677682824673</v>
       </c>
       <c r="M13">
-        <v>1.008984110559334</v>
+        <v>1.047474294166537</v>
       </c>
       <c r="N13">
-        <v>1.002845883725082</v>
+        <v>1.037434454929084</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9715016059456522</v>
+        <v>1.029484788573318</v>
       </c>
       <c r="D14">
-        <v>0.9984901163313746</v>
+        <v>1.037611858152762</v>
       </c>
       <c r="E14">
-        <v>0.9821775346879454</v>
+        <v>1.033352721660161</v>
       </c>
       <c r="F14">
-        <v>0.9947669684866357</v>
+        <v>1.044091008211369</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035616916638628</v>
+        <v>1.032923702544883</v>
       </c>
       <c r="J14">
-        <v>1.002147389420832</v>
+        <v>1.036100112524927</v>
       </c>
       <c r="K14">
-        <v>1.013457569454923</v>
+        <v>1.041176710736612</v>
       </c>
       <c r="L14">
-        <v>0.9974609912718899</v>
+        <v>1.03693339869866</v>
       </c>
       <c r="M14">
-        <v>1.009805350923528</v>
+        <v>1.04763206173924</v>
       </c>
       <c r="N14">
-        <v>1.003570553661722</v>
+        <v>1.037571493527056</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9721716038610277</v>
+        <v>1.02960708931158</v>
       </c>
       <c r="D15">
-        <v>0.9990008962847559</v>
+        <v>1.037707783357778</v>
       </c>
       <c r="E15">
-        <v>0.9827775148893925</v>
+        <v>1.033469174093683</v>
       </c>
       <c r="F15">
-        <v>0.9953718988203996</v>
+        <v>1.04420795668655</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035787218012865</v>
+        <v>1.03294653409406</v>
       </c>
       <c r="J15">
-        <v>1.0025913053151</v>
+        <v>1.036184415383186</v>
       </c>
       <c r="K15">
-        <v>1.013869646322162</v>
+        <v>1.041252818901252</v>
       </c>
       <c r="L15">
-        <v>0.9979579181869754</v>
+        <v>1.03702986266229</v>
       </c>
       <c r="M15">
-        <v>1.010309209035945</v>
+        <v>1.047729260086625</v>
       </c>
       <c r="N15">
-        <v>1.004015099967478</v>
+        <v>1.037655916105044</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9760279375211066</v>
+        <v>1.030318944838451</v>
       </c>
       <c r="D16">
-        <v>1.001942851545696</v>
+        <v>1.038266046747966</v>
       </c>
       <c r="E16">
-        <v>0.9862339225057106</v>
+        <v>1.034147130852217</v>
       </c>
       <c r="F16">
-        <v>0.9988568390466737</v>
+        <v>1.044888752575873</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036763748005205</v>
+        <v>1.033078884074789</v>
       </c>
       <c r="J16">
-        <v>1.005146087532064</v>
+        <v>1.036674920663268</v>
       </c>
       <c r="K16">
-        <v>1.0162405407021</v>
+        <v>1.041695502652547</v>
       </c>
       <c r="L16">
-        <v>1.000818833563967</v>
+        <v>1.03759126004175</v>
       </c>
       <c r="M16">
-        <v>1.013210025801176</v>
+        <v>1.048294882901702</v>
       </c>
       <c r="N16">
-        <v>1.006573510268228</v>
+        <v>1.038147117958885</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.978409904857798</v>
+        <v>1.030765485007056</v>
       </c>
       <c r="D17">
-        <v>1.003761713673215</v>
+        <v>1.038616175507524</v>
       </c>
       <c r="E17">
-        <v>0.9883714951535798</v>
+        <v>1.034572530769544</v>
       </c>
       <c r="F17">
-        <v>1.001012051293137</v>
+        <v>1.045315890970228</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037363639089501</v>
+        <v>1.03316142857732</v>
       </c>
       <c r="J17">
-        <v>1.006723809327224</v>
+        <v>1.036982449050226</v>
       </c>
       <c r="K17">
-        <v>1.01770410634093</v>
+        <v>1.04197292368538</v>
       </c>
       <c r="L17">
-        <v>1.002586533224973</v>
+        <v>1.037943353404506</v>
       </c>
       <c r="M17">
-        <v>1.015002358823377</v>
+        <v>1.048649583500945</v>
       </c>
       <c r="N17">
-        <v>1.008153472609304</v>
+        <v>1.038455083071427</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9797863738104929</v>
+        <v>1.031025949093436</v>
       </c>
       <c r="D18">
-        <v>1.004813347522309</v>
+        <v>1.038820379888436</v>
       </c>
       <c r="E18">
-        <v>0.9896076557915295</v>
+        <v>1.034820708417233</v>
       </c>
       <c r="F18">
-        <v>1.002258403231299</v>
+        <v>1.045565067302724</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037709091540061</v>
+        <v>1.033209404163975</v>
       </c>
       <c r="J18">
-        <v>1.007635394642088</v>
+        <v>1.037161770331058</v>
       </c>
       <c r="K18">
-        <v>1.018549510359068</v>
+        <v>1.042134644075384</v>
       </c>
       <c r="L18">
-        <v>1.003608218675153</v>
+        <v>1.038148703382001</v>
       </c>
       <c r="M18">
-        <v>1.016038267230662</v>
+        <v>1.048856438596966</v>
       </c>
       <c r="N18">
-        <v>1.009066352479875</v>
+        <v>1.038634659009047</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9802535680706775</v>
+        <v>1.031114761464602</v>
       </c>
       <c r="D19">
-        <v>1.005170380380159</v>
+        <v>1.038890004952515</v>
       </c>
       <c r="E19">
-        <v>0.9900273809680584</v>
+        <v>1.034905338926203</v>
       </c>
       <c r="F19">
-        <v>1.002681586419876</v>
+        <v>1.045650035731162</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037826136390895</v>
+        <v>1.033225733557413</v>
       </c>
       <c r="J19">
-        <v>1.007944775590764</v>
+        <v>1.037222904971284</v>
       </c>
       <c r="K19">
-        <v>1.018836391408869</v>
+        <v>1.042189770512027</v>
       </c>
       <c r="L19">
-        <v>1.003955022983563</v>
+        <v>1.038218719022673</v>
       </c>
       <c r="M19">
-        <v>1.016389896324911</v>
+        <v>1.04892696478732</v>
       </c>
       <c r="N19">
-        <v>1.009376172784985</v>
+        <v>1.038695880467473</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9781556855776909</v>
+        <v>1.030717574990099</v>
       </c>
       <c r="D20">
-        <v>1.003567532980538</v>
+        <v>1.038578612054565</v>
       </c>
       <c r="E20">
-        <v>0.988143263182785</v>
+        <v>1.034526884313302</v>
       </c>
       <c r="F20">
-        <v>1.000781936755365</v>
+        <v>1.04527005957744</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03729973952483</v>
+        <v>1.03315259004418</v>
       </c>
       <c r="J20">
-        <v>1.006555437815855</v>
+        <v>1.036949459839285</v>
       </c>
       <c r="K20">
-        <v>1.017547940353712</v>
+        <v>1.041943168821599</v>
       </c>
       <c r="L20">
-        <v>1.002397853028415</v>
+        <v>1.037905579204616</v>
       </c>
       <c r="M20">
-        <v>1.014811050668972</v>
+        <v>1.048611531185791</v>
       </c>
       <c r="N20">
-        <v>1.007984861991075</v>
+        <v>1.038422047012022</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9711806043546751</v>
+        <v>1.029426336268627</v>
       </c>
       <c r="D21">
-        <v>0.9982454352977809</v>
+        <v>1.037566010477039</v>
       </c>
       <c r="E21">
-        <v>0.9818901351200787</v>
+        <v>1.03329706699416</v>
       </c>
       <c r="F21">
-        <v>0.9944771982966026</v>
+        <v>1.044035115620114</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035535259017669</v>
+        <v>1.032912780890141</v>
       </c>
       <c r="J21">
-        <v>1.001934701455325</v>
+        <v>1.036059817677829</v>
       </c>
       <c r="K21">
-        <v>1.013260124863435</v>
+        <v>1.041140330265371</v>
       </c>
       <c r="L21">
-        <v>0.9972229234729818</v>
+        <v>1.036887293491386</v>
       </c>
       <c r="M21">
-        <v>1.009563962739227</v>
+        <v>1.047585604676505</v>
       </c>
       <c r="N21">
-        <v>1.003357563654908</v>
+        <v>1.037531141456653</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9666691074111837</v>
+        <v>1.028614516809053</v>
       </c>
       <c r="D22">
-        <v>0.9948092357159087</v>
+        <v>1.036929167949898</v>
       </c>
       <c r="E22">
-        <v>0.9778547213163101</v>
+        <v>1.032524269387039</v>
       </c>
       <c r="F22">
-        <v>0.9904085584449541</v>
+        <v>1.043258957496014</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03438333412654</v>
+        <v>1.032760460582057</v>
       </c>
       <c r="J22">
-        <v>0.9989452808918078</v>
+        <v>1.035499966648004</v>
       </c>
       <c r="K22">
-        <v>1.010484228796911</v>
+        <v>1.040634699350537</v>
       </c>
       <c r="L22">
-        <v>0.993878026618034</v>
+        <v>1.036246871369665</v>
       </c>
       <c r="M22">
-        <v>1.00617244870936</v>
+        <v>1.046940238567699</v>
       </c>
       <c r="N22">
-        <v>1.000363897771299</v>
+        <v>1.03697049537415</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9690731828751025</v>
+        <v>1.029044874934163</v>
       </c>
       <c r="D23">
-        <v>0.9966396865904885</v>
+        <v>1.0372667873245</v>
       </c>
       <c r="E23">
-        <v>0.9800042146337028</v>
+        <v>1.032933902794849</v>
       </c>
       <c r="F23">
-        <v>0.992575733701025</v>
+        <v>1.043670385333814</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034998144912899</v>
+        <v>1.03284135470701</v>
       </c>
       <c r="J23">
-        <v>1.000538317467366</v>
+        <v>1.035796801630948</v>
       </c>
       <c r="K23">
-        <v>1.01196364457569</v>
+        <v>1.040902824962385</v>
       </c>
       <c r="L23">
-        <v>0.995660206702801</v>
+        <v>1.036586389037839</v>
       </c>
       <c r="M23">
-        <v>1.007979456533317</v>
+        <v>1.047282390352338</v>
       </c>
       <c r="N23">
-        <v>1.001959196641519</v>
+        <v>1.037267751896818</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9782705960649674</v>
+        <v>1.030739223449379</v>
       </c>
       <c r="D24">
-        <v>1.00365530348066</v>
+        <v>1.038595585423057</v>
       </c>
       <c r="E24">
-        <v>0.9882464242129877</v>
+        <v>1.034547509830143</v>
       </c>
       <c r="F24">
-        <v>1.000885948739213</v>
+        <v>1.045290768706562</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03732862672603</v>
+        <v>1.033156584325841</v>
       </c>
       <c r="J24">
-        <v>1.006631544393285</v>
+        <v>1.036964366412869</v>
       </c>
       <c r="K24">
-        <v>1.017618530537454</v>
+        <v>1.041956614055881</v>
       </c>
       <c r="L24">
-        <v>1.002483138416309</v>
+        <v>1.037922647801502</v>
       </c>
       <c r="M24">
-        <v>1.014897523967479</v>
+        <v>1.048628725499332</v>
       </c>
       <c r="N24">
-        <v>1.008061076648575</v>
+        <v>1.038436974754651</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9884419318271445</v>
+        <v>1.03270561207316</v>
       </c>
       <c r="D25">
-        <v>1.011435217412065</v>
+        <v>1.04013680547366</v>
       </c>
       <c r="E25">
-        <v>0.9973965187917246</v>
+        <v>1.036421938361592</v>
       </c>
       <c r="F25">
-        <v>1.010111097148447</v>
+        <v>1.047172458540555</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039859285748039</v>
+        <v>1.033515673988967</v>
       </c>
       <c r="J25">
-        <v>1.013364631644789</v>
+        <v>1.038317111564685</v>
       </c>
       <c r="K25">
-        <v>1.023858572529812</v>
+        <v>1.043175767494788</v>
       </c>
       <c r="L25">
-        <v>1.010035385345556</v>
+        <v>1.039472514351653</v>
       </c>
       <c r="M25">
-        <v>1.022554453179498</v>
+        <v>1.050189671156413</v>
       </c>
       <c r="N25">
-        <v>1.014803725656273</v>
+        <v>1.039791640959745</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_56/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03427420202738</v>
+        <v>0.9961955410726983</v>
       </c>
       <c r="D2">
-        <v>1.041365459208463</v>
+        <v>1.017378921427439</v>
       </c>
       <c r="E2">
-        <v>1.037918556866448</v>
+        <v>1.004397003747631</v>
       </c>
       <c r="F2">
-        <v>1.048674377599796</v>
+        <v>1.017167892240387</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033796666875025</v>
+        <v>1.041748795458256</v>
       </c>
       <c r="J2">
-        <v>1.039394344286892</v>
+        <v>1.018490641360057</v>
       </c>
       <c r="K2">
-        <v>1.04414517993126</v>
+        <v>1.028601335421046</v>
       </c>
       <c r="L2">
-        <v>1.040708070665837</v>
+        <v>1.015795419339191</v>
       </c>
       <c r="M2">
-        <v>1.051433563782909</v>
+        <v>1.028393122135375</v>
       </c>
       <c r="N2">
-        <v>1.040870403475977</v>
+        <v>1.019937014893294</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035413281770566</v>
+        <v>1.001637121903977</v>
       </c>
       <c r="D3">
-        <v>1.042257216117441</v>
+        <v>1.02155604944548</v>
       </c>
       <c r="E3">
-        <v>1.039006164679349</v>
+        <v>1.00932351836891</v>
       </c>
       <c r="F3">
-        <v>1.049765546586225</v>
+        <v>1.022133056190434</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033997551711782</v>
+        <v>1.043050876058922</v>
       </c>
       <c r="J3">
-        <v>1.040175527966717</v>
+        <v>1.022083256601193</v>
       </c>
       <c r="K3">
-        <v>1.044847336605564</v>
+        <v>1.031920350247875</v>
       </c>
       <c r="L3">
-        <v>1.041604850660635</v>
+        <v>1.019838476931352</v>
       </c>
       <c r="M3">
-        <v>1.052336103849365</v>
+        <v>1.032490361122802</v>
       </c>
       <c r="N3">
-        <v>1.041652696526231</v>
+        <v>1.023534732060155</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036150417961636</v>
+        <v>1.005077043604233</v>
       </c>
       <c r="D4">
-        <v>1.042834079777768</v>
+        <v>1.024198762249554</v>
       </c>
       <c r="E4">
-        <v>1.039710354654507</v>
+        <v>1.012443726458168</v>
       </c>
       <c r="F4">
-        <v>1.050471906939601</v>
+        <v>1.025277188916449</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034126084261762</v>
+        <v>1.043862541290672</v>
       </c>
       <c r="J4">
-        <v>1.040680554787859</v>
+        <v>1.024351763714595</v>
       </c>
       <c r="K4">
-        <v>1.045300883760595</v>
+        <v>1.034013645201971</v>
       </c>
       <c r="L4">
-        <v>1.042184972316799</v>
+        <v>1.022394251191053</v>
       </c>
       <c r="M4">
-        <v>1.052919816273814</v>
+        <v>1.035079819941154</v>
       </c>
       <c r="N4">
-        <v>1.042158440543385</v>
+        <v>1.025806460713859</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036460329013563</v>
+        <v>1.006504582410105</v>
       </c>
       <c r="D5">
-        <v>1.04307655424501</v>
+        <v>1.025295898438873</v>
       </c>
       <c r="E5">
-        <v>1.040006500622412</v>
+        <v>1.013739950925555</v>
       </c>
       <c r="F5">
-        <v>1.050768933130318</v>
+        <v>1.026583205253672</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034179771317323</v>
+        <v>1.044196577420539</v>
       </c>
       <c r="J5">
-        <v>1.040892760305759</v>
+        <v>1.025292509863464</v>
       </c>
       <c r="K5">
-        <v>1.045491364683521</v>
+        <v>1.034881122890267</v>
       </c>
       <c r="L5">
-        <v>1.042428818672646</v>
+        <v>1.023454813103883</v>
       </c>
       <c r="M5">
-        <v>1.053165139402035</v>
+        <v>1.036154210439057</v>
       </c>
       <c r="N5">
-        <v>1.042370947417462</v>
+        <v>1.026748542830164</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036512365584242</v>
+        <v>1.006743204476414</v>
       </c>
       <c r="D6">
-        <v>1.043117264485134</v>
+        <v>1.025479314896879</v>
       </c>
       <c r="E6">
-        <v>1.040056230972208</v>
+        <v>1.013956701812205</v>
       </c>
       <c r="F6">
-        <v>1.050818809380879</v>
+        <v>1.026801584459665</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034188765199069</v>
+        <v>1.044252247698479</v>
       </c>
       <c r="J6">
-        <v>1.040928384234975</v>
+        <v>1.025449721064522</v>
       </c>
       <c r="K6">
-        <v>1.04552333611112</v>
+        <v>1.035026053613118</v>
       </c>
       <c r="L6">
-        <v>1.042469759400537</v>
+        <v>1.02363208762408</v>
       </c>
       <c r="M6">
-        <v>1.053206326159912</v>
+        <v>1.036333787257154</v>
       </c>
       <c r="N6">
-        <v>1.042406621936743</v>
+        <v>1.02690597728916</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036154558932451</v>
+        <v>1.005096190498121</v>
       </c>
       <c r="D7">
-        <v>1.042837319886862</v>
+        <v>1.024213476000849</v>
       </c>
       <c r="E7">
-        <v>1.039714311360345</v>
+        <v>1.012461106766321</v>
       </c>
       <c r="F7">
-        <v>1.050475875533735</v>
+        <v>1.025294701117472</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03412680299845</v>
+        <v>1.043867032682619</v>
       </c>
       <c r="J7">
-        <v>1.040683390711449</v>
+        <v>1.024364384180943</v>
       </c>
       <c r="K7">
-        <v>1.04530342972369</v>
+        <v>1.034025285175324</v>
       </c>
       <c r="L7">
-        <v>1.042188230747906</v>
+        <v>1.02240847631048</v>
       </c>
       <c r="M7">
-        <v>1.052923094566627</v>
+        <v>1.035094231148967</v>
       </c>
       <c r="N7">
-        <v>1.042161280494312</v>
+        <v>1.025819099102717</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034659144306408</v>
+        <v>0.9980518613437135</v>
       </c>
       <c r="D8">
-        <v>1.041666866277503</v>
+        <v>1.018803397491258</v>
       </c>
       <c r="E8">
-        <v>1.038286029169804</v>
+        <v>1.006076348703655</v>
       </c>
       <c r="F8">
-        <v>1.049043081068038</v>
+        <v>1.018860519242307</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033864857723645</v>
+        <v>1.042195356625443</v>
       </c>
       <c r="J8">
-        <v>1.03965844256966</v>
+        <v>1.019716726283308</v>
       </c>
       <c r="K8">
-        <v>1.044382641749613</v>
+        <v>1.029734548983346</v>
       </c>
       <c r="L8">
-        <v>1.041011173937972</v>
+        <v>1.017174636293477</v>
       </c>
       <c r="M8">
-        <v>1.051738641855523</v>
+        <v>1.029790932369804</v>
       </c>
       <c r="N8">
-        <v>1.041134876808599</v>
+        <v>1.021164840997773</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.032024568046465</v>
+        <v>0.9849777088621038</v>
       </c>
       <c r="D9">
-        <v>1.039603133810593</v>
+        <v>1.008783148974164</v>
       </c>
       <c r="E9">
-        <v>1.035772528221528</v>
+        <v>0.9942759254195074</v>
       </c>
       <c r="F9">
-        <v>1.046520609235137</v>
+        <v>1.006965034131541</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033392149250579</v>
+        <v>1.039003496280011</v>
       </c>
       <c r="J9">
-        <v>1.037848884211532</v>
+        <v>1.011072328068223</v>
       </c>
       <c r="K9">
-        <v>1.042754002329342</v>
+        <v>1.02173531505039</v>
       </c>
       <c r="L9">
-        <v>1.038935848220008</v>
+        <v>1.007462559481151</v>
       </c>
       <c r="M9">
-        <v>1.049649245096179</v>
+        <v>1.019946110287914</v>
       </c>
       <c r="N9">
-        <v>1.039322748670044</v>
+        <v>1.012508166745697</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.030268482115438</v>
+        <v>0.9757569762071325</v>
       </c>
       <c r="D10">
-        <v>1.038226476145424</v>
+        <v>1.00173602664258</v>
       </c>
       <c r="E10">
-        <v>1.034099063192146</v>
+        <v>0.9859908898911822</v>
       </c>
       <c r="F10">
-        <v>1.04484048637901</v>
+        <v>0.9986118001050189</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033069532583194</v>
+        <v>1.036695344162002</v>
       </c>
       <c r="J10">
-        <v>1.036640159565608</v>
+        <v>1.004966596780756</v>
       </c>
       <c r="K10">
-        <v>1.04166413859853</v>
+        <v>1.016074007176506</v>
       </c>
       <c r="L10">
-        <v>1.037551467366822</v>
+        <v>1.000617775285488</v>
       </c>
       <c r="M10">
-        <v>1.048254793471264</v>
+        <v>1.013006164246685</v>
       </c>
       <c r="N10">
-        <v>1.038112307496479</v>
+        <v>1.006393764619464</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029508133721428</v>
+        <v>0.971629668310484</v>
       </c>
       <c r="D11">
-        <v>1.037630168934448</v>
+        <v>0.9985877377670707</v>
       </c>
       <c r="E11">
-        <v>1.03337494991754</v>
+        <v>0.9822922017658259</v>
       </c>
       <c r="F11">
-        <v>1.044113331340214</v>
+        <v>0.9948825815065964</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032928062795348</v>
+        <v>1.0356494819644</v>
       </c>
       <c r="J11">
-        <v>1.036116205222174</v>
+        <v>1.002232239744518</v>
       </c>
       <c r="K11">
-        <v>1.041191239683976</v>
+        <v>1.013536336519828</v>
       </c>
       <c r="L11">
-        <v>1.036951812328442</v>
+        <v>0.9975559700655676</v>
       </c>
       <c r="M11">
-        <v>1.047650615739737</v>
+        <v>1.009901654451827</v>
       </c>
       <c r="N11">
-        <v>1.03758760907778</v>
+        <v>1.0036555244826</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029225712391968</v>
+        <v>0.9700749637054236</v>
       </c>
       <c r="D12">
-        <v>1.037408642838897</v>
+        <v>0.9974028586090746</v>
       </c>
       <c r="E12">
-        <v>1.033106057657404</v>
+        <v>0.980900508647969</v>
       </c>
       <c r="F12">
-        <v>1.043843285508089</v>
+        <v>0.9934794122687758</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032875247966356</v>
+        <v>1.035253685249684</v>
       </c>
       <c r="J12">
-        <v>1.035921499275692</v>
+        <v>1.001202111900024</v>
       </c>
       <c r="K12">
-        <v>1.041015436314978</v>
+        <v>1.012579985472502</v>
       </c>
       <c r="L12">
-        <v>1.036729041741522</v>
+        <v>0.9964030065098354</v>
       </c>
       <c r="M12">
-        <v>1.0474261410282</v>
+        <v>1.008732611830994</v>
       </c>
       <c r="N12">
-        <v>1.03739262662652</v>
+        <v>1.002623933738409</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029286292479737</v>
+        <v>0.9704094562856854</v>
       </c>
       <c r="D13">
-        <v>1.037456162346462</v>
+        <v>0.9976577345801663</v>
       </c>
       <c r="E13">
-        <v>1.033163732547681</v>
+        <v>0.9811998578286106</v>
       </c>
       <c r="F13">
-        <v>1.043901208914774</v>
+        <v>0.9937812290023995</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03288658899347</v>
+        <v>1.035338921935555</v>
       </c>
       <c r="J13">
-        <v>1.035963268261505</v>
+        <v>1.001423747139236</v>
       </c>
       <c r="K13">
-        <v>1.041053153421212</v>
+        <v>1.01278576143825</v>
       </c>
       <c r="L13">
-        <v>1.03677682824673</v>
+        <v>0.9966510465711449</v>
       </c>
       <c r="M13">
-        <v>1.047474294166537</v>
+        <v>1.008984110559335</v>
       </c>
       <c r="N13">
-        <v>1.037434454929084</v>
+        <v>1.002845883725083</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029484788573318</v>
+        <v>0.9715016059456525</v>
       </c>
       <c r="D14">
-        <v>1.037611858152762</v>
+        <v>0.9984901163313746</v>
       </c>
       <c r="E14">
-        <v>1.033352721660161</v>
+        <v>0.982177534687946</v>
       </c>
       <c r="F14">
-        <v>1.044091008211369</v>
+        <v>0.9947669684866355</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032923702544883</v>
+        <v>1.035616916638628</v>
       </c>
       <c r="J14">
-        <v>1.036100112524927</v>
+        <v>1.002147389420832</v>
       </c>
       <c r="K14">
-        <v>1.041176710736612</v>
+        <v>1.013457569454923</v>
       </c>
       <c r="L14">
-        <v>1.03693339869866</v>
+        <v>0.9974609912718903</v>
       </c>
       <c r="M14">
-        <v>1.04763206173924</v>
+        <v>1.009805350923528</v>
       </c>
       <c r="N14">
-        <v>1.037571493527056</v>
+        <v>1.003570553661722</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02960708931158</v>
+        <v>0.9721716038610277</v>
       </c>
       <c r="D15">
-        <v>1.037707783357778</v>
+        <v>0.9990008962847555</v>
       </c>
       <c r="E15">
-        <v>1.033469174093683</v>
+        <v>0.9827775148893926</v>
       </c>
       <c r="F15">
-        <v>1.04420795668655</v>
+        <v>0.9953718988203991</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03294653409406</v>
+        <v>1.035787218012865</v>
       </c>
       <c r="J15">
-        <v>1.036184415383186</v>
+        <v>1.0025913053151</v>
       </c>
       <c r="K15">
-        <v>1.041252818901252</v>
+        <v>1.013869646322161</v>
       </c>
       <c r="L15">
-        <v>1.03702986266229</v>
+        <v>0.9979579181869753</v>
       </c>
       <c r="M15">
-        <v>1.047729260086625</v>
+        <v>1.010309209035945</v>
       </c>
       <c r="N15">
-        <v>1.037655916105044</v>
+        <v>1.004015099967478</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.030318944838451</v>
+        <v>0.9760279375211068</v>
       </c>
       <c r="D16">
-        <v>1.038266046747966</v>
+        <v>1.001942851545696</v>
       </c>
       <c r="E16">
-        <v>1.034147130852217</v>
+        <v>0.9862339225057107</v>
       </c>
       <c r="F16">
-        <v>1.044888752575873</v>
+        <v>0.9988568390466743</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033078884074789</v>
+        <v>1.036763748005206</v>
       </c>
       <c r="J16">
-        <v>1.036674920663268</v>
+        <v>1.005146087532065</v>
       </c>
       <c r="K16">
-        <v>1.041695502652547</v>
+        <v>1.016240540702101</v>
       </c>
       <c r="L16">
-        <v>1.03759126004175</v>
+        <v>1.000818833563967</v>
       </c>
       <c r="M16">
-        <v>1.048294882901702</v>
+        <v>1.013210025801176</v>
       </c>
       <c r="N16">
-        <v>1.038147117958885</v>
+        <v>1.006573510268228</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030765485007056</v>
+        <v>0.9784099048577978</v>
       </c>
       <c r="D17">
-        <v>1.038616175507524</v>
+        <v>1.003761713673214</v>
       </c>
       <c r="E17">
-        <v>1.034572530769544</v>
+        <v>0.9883714951535795</v>
       </c>
       <c r="F17">
-        <v>1.045315890970228</v>
+        <v>1.001012051293137</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03316142857732</v>
+        <v>1.037363639089501</v>
       </c>
       <c r="J17">
-        <v>1.036982449050226</v>
+        <v>1.006723809327224</v>
       </c>
       <c r="K17">
-        <v>1.04197292368538</v>
+        <v>1.01770410634093</v>
       </c>
       <c r="L17">
-        <v>1.037943353404506</v>
+        <v>1.002586533224973</v>
       </c>
       <c r="M17">
-        <v>1.048649583500945</v>
+        <v>1.015002358823376</v>
       </c>
       <c r="N17">
-        <v>1.038455083071427</v>
+        <v>1.008153472609303</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.031025949093436</v>
+        <v>0.9797863738104946</v>
       </c>
       <c r="D18">
-        <v>1.038820379888436</v>
+        <v>1.004813347522311</v>
       </c>
       <c r="E18">
-        <v>1.034820708417233</v>
+        <v>0.9896076557915314</v>
       </c>
       <c r="F18">
-        <v>1.045565067302724</v>
+        <v>1.002258403231302</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033209404163975</v>
+        <v>1.037709091540062</v>
       </c>
       <c r="J18">
-        <v>1.037161770331058</v>
+        <v>1.00763539464209</v>
       </c>
       <c r="K18">
-        <v>1.042134644075384</v>
+        <v>1.01854951035907</v>
       </c>
       <c r="L18">
-        <v>1.038148703382001</v>
+        <v>1.003608218675154</v>
       </c>
       <c r="M18">
-        <v>1.048856438596966</v>
+        <v>1.016038267230664</v>
       </c>
       <c r="N18">
-        <v>1.038634659009047</v>
+        <v>1.009066352479877</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.031114761464602</v>
+        <v>0.9802535680706764</v>
       </c>
       <c r="D19">
-        <v>1.038890004952515</v>
+        <v>1.005170380380158</v>
       </c>
       <c r="E19">
-        <v>1.034905338926203</v>
+        <v>0.9900273809680573</v>
       </c>
       <c r="F19">
-        <v>1.045650035731162</v>
+        <v>1.002681586419875</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033225733557413</v>
+        <v>1.037826136390894</v>
       </c>
       <c r="J19">
-        <v>1.037222904971284</v>
+        <v>1.007944775590763</v>
       </c>
       <c r="K19">
-        <v>1.042189770512027</v>
+        <v>1.018836391408868</v>
       </c>
       <c r="L19">
-        <v>1.038218719022673</v>
+        <v>1.003955022983562</v>
       </c>
       <c r="M19">
-        <v>1.04892696478732</v>
+        <v>1.01638989632491</v>
       </c>
       <c r="N19">
-        <v>1.038695880467473</v>
+        <v>1.009376172784984</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030717574990099</v>
+        <v>0.9781556855776912</v>
       </c>
       <c r="D20">
-        <v>1.038578612054565</v>
+        <v>1.003567532980538</v>
       </c>
       <c r="E20">
-        <v>1.034526884313302</v>
+        <v>0.988143263182785</v>
       </c>
       <c r="F20">
-        <v>1.04527005957744</v>
+        <v>1.000781936755366</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03315259004418</v>
+        <v>1.037299739524831</v>
       </c>
       <c r="J20">
-        <v>1.036949459839285</v>
+        <v>1.006555437815855</v>
       </c>
       <c r="K20">
-        <v>1.041943168821599</v>
+        <v>1.017547940353712</v>
       </c>
       <c r="L20">
-        <v>1.037905579204616</v>
+        <v>1.002397853028415</v>
       </c>
       <c r="M20">
-        <v>1.048611531185791</v>
+        <v>1.014811050668972</v>
       </c>
       <c r="N20">
-        <v>1.038422047012022</v>
+        <v>1.007984861991076</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.029426336268627</v>
+        <v>0.9711806043546753</v>
       </c>
       <c r="D21">
-        <v>1.037566010477039</v>
+        <v>0.9982454352977809</v>
       </c>
       <c r="E21">
-        <v>1.03329706699416</v>
+        <v>0.9818901351200788</v>
       </c>
       <c r="F21">
-        <v>1.044035115620114</v>
+        <v>0.9944771982966024</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032912780890141</v>
+        <v>1.035535259017669</v>
       </c>
       <c r="J21">
-        <v>1.036059817677829</v>
+        <v>1.001934701455326</v>
       </c>
       <c r="K21">
-        <v>1.041140330265371</v>
+        <v>1.013260124863435</v>
       </c>
       <c r="L21">
-        <v>1.036887293491386</v>
+        <v>0.997222923472982</v>
       </c>
       <c r="M21">
-        <v>1.047585604676505</v>
+        <v>1.009563962739227</v>
       </c>
       <c r="N21">
-        <v>1.037531141456653</v>
+        <v>1.003357563654909</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.028614516809053</v>
+        <v>0.9666691074111837</v>
       </c>
       <c r="D22">
-        <v>1.036929167949898</v>
+        <v>0.9948092357159085</v>
       </c>
       <c r="E22">
-        <v>1.032524269387039</v>
+        <v>0.9778547213163106</v>
       </c>
       <c r="F22">
-        <v>1.043258957496014</v>
+        <v>0.9904085584449539</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032760460582057</v>
+        <v>1.03438333412654</v>
       </c>
       <c r="J22">
-        <v>1.035499966648004</v>
+        <v>0.9989452808918079</v>
       </c>
       <c r="K22">
-        <v>1.040634699350537</v>
+        <v>1.010484228796911</v>
       </c>
       <c r="L22">
-        <v>1.036246871369665</v>
+        <v>0.9938780266180345</v>
       </c>
       <c r="M22">
-        <v>1.046940238567699</v>
+        <v>1.006172448709359</v>
       </c>
       <c r="N22">
-        <v>1.03697049537415</v>
+        <v>1.000363897771299</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.029044874934163</v>
+        <v>0.9690731828751</v>
       </c>
       <c r="D23">
-        <v>1.0372667873245</v>
+        <v>0.9966396865904863</v>
       </c>
       <c r="E23">
-        <v>1.032933902794849</v>
+        <v>0.9800042146337</v>
       </c>
       <c r="F23">
-        <v>1.043670385333814</v>
+        <v>0.9925757337010228</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03284135470701</v>
+        <v>1.034998144912898</v>
       </c>
       <c r="J23">
-        <v>1.035796801630948</v>
+        <v>1.000538317467364</v>
       </c>
       <c r="K23">
-        <v>1.040902824962385</v>
+        <v>1.011963644575688</v>
       </c>
       <c r="L23">
-        <v>1.036586389037839</v>
+        <v>0.9956602067027983</v>
       </c>
       <c r="M23">
-        <v>1.047282390352338</v>
+        <v>1.007979456533315</v>
       </c>
       <c r="N23">
-        <v>1.037267751896818</v>
+        <v>1.001959196641516</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.030739223449379</v>
+        <v>0.9782705960649659</v>
       </c>
       <c r="D24">
-        <v>1.038595585423057</v>
+        <v>1.003655303480659</v>
       </c>
       <c r="E24">
-        <v>1.034547509830143</v>
+        <v>0.9882464242129868</v>
       </c>
       <c r="F24">
-        <v>1.045290768706562</v>
+        <v>1.000885948739211</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033156584325841</v>
+        <v>1.03732862672603</v>
       </c>
       <c r="J24">
-        <v>1.036964366412869</v>
+        <v>1.006631544393283</v>
       </c>
       <c r="K24">
-        <v>1.041956614055881</v>
+        <v>1.017618530537453</v>
       </c>
       <c r="L24">
-        <v>1.037922647801502</v>
+        <v>1.002483138416308</v>
       </c>
       <c r="M24">
-        <v>1.048628725499332</v>
+        <v>1.014897523967478</v>
       </c>
       <c r="N24">
-        <v>1.038436974754651</v>
+        <v>1.008061076648574</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03270561207316</v>
+        <v>0.9884419318271449</v>
       </c>
       <c r="D25">
-        <v>1.04013680547366</v>
+        <v>1.011435217412065</v>
       </c>
       <c r="E25">
-        <v>1.036421938361592</v>
+        <v>0.9973965187917252</v>
       </c>
       <c r="F25">
-        <v>1.047172458540555</v>
+        <v>1.010111097148448</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033515673988967</v>
+        <v>1.039859285748039</v>
       </c>
       <c r="J25">
-        <v>1.038317111564685</v>
+        <v>1.01336463164479</v>
       </c>
       <c r="K25">
-        <v>1.043175767494788</v>
+        <v>1.023858572529812</v>
       </c>
       <c r="L25">
-        <v>1.039472514351653</v>
+        <v>1.010035385345557</v>
       </c>
       <c r="M25">
-        <v>1.050189671156413</v>
+        <v>1.022554453179498</v>
       </c>
       <c r="N25">
-        <v>1.039791640959745</v>
+        <v>1.014803725656273</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_56/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9961955410726983</v>
+        <v>0.998979015202524</v>
       </c>
       <c r="D2">
-        <v>1.017378921427439</v>
+        <v>1.020456016368307</v>
       </c>
       <c r="E2">
-        <v>1.004397003747631</v>
+        <v>1.007161456917471</v>
       </c>
       <c r="F2">
-        <v>1.017167892240387</v>
+        <v>1.025364740944724</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041748795458256</v>
+        <v>1.047905028904126</v>
       </c>
       <c r="J2">
-        <v>1.018490641360057</v>
+        <v>1.021190306690614</v>
       </c>
       <c r="K2">
-        <v>1.028601335421046</v>
+        <v>1.031637536658758</v>
       </c>
       <c r="L2">
-        <v>1.015795419339191</v>
+        <v>1.018521914802242</v>
       </c>
       <c r="M2">
-        <v>1.028393122135375</v>
+        <v>1.036481662353135</v>
       </c>
       <c r="N2">
-        <v>1.019937014893294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010071524824234</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.037445172552718</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.033440681399937</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001637121903977</v>
+        <v>1.004245182252441</v>
       </c>
       <c r="D3">
-        <v>1.02155604944548</v>
+        <v>1.023972831271318</v>
       </c>
       <c r="E3">
-        <v>1.00932351836891</v>
+        <v>1.011916857281304</v>
       </c>
       <c r="F3">
-        <v>1.022133056190434</v>
+        <v>1.028747039970569</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043050876058922</v>
+        <v>1.049262226300989</v>
       </c>
       <c r="J3">
-        <v>1.022083256601193</v>
+        <v>1.024620784533471</v>
       </c>
       <c r="K3">
-        <v>1.031920350247875</v>
+        <v>1.034307895365199</v>
       </c>
       <c r="L3">
-        <v>1.019838476931352</v>
+        <v>1.022399496946989</v>
       </c>
       <c r="M3">
-        <v>1.032490361122802</v>
+        <v>1.039024849286939</v>
       </c>
       <c r="N3">
-        <v>1.023534732060155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.01131963681696</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.039457940238308</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.035326204803164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005077043604233</v>
+        <v>1.007574542780421</v>
       </c>
       <c r="D4">
-        <v>1.024198762249554</v>
+        <v>1.02619871370126</v>
       </c>
       <c r="E4">
-        <v>1.012443726458168</v>
+        <v>1.014928928102496</v>
       </c>
       <c r="F4">
-        <v>1.025277188916449</v>
+        <v>1.030894727433666</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043862541290672</v>
+        <v>1.050106497725358</v>
       </c>
       <c r="J4">
-        <v>1.024351763714595</v>
+        <v>1.026786455723413</v>
       </c>
       <c r="K4">
-        <v>1.034013645201971</v>
+        <v>1.035990900499635</v>
       </c>
       <c r="L4">
-        <v>1.022394251191053</v>
+        <v>1.024850452205481</v>
       </c>
       <c r="M4">
-        <v>1.035079819941154</v>
+        <v>1.040634048402182</v>
       </c>
       <c r="N4">
-        <v>1.025806460713859</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012106710743197</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.040731514161387</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.036517150436179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006504582410105</v>
+        <v>1.008962545464686</v>
       </c>
       <c r="D5">
-        <v>1.025295898438873</v>
+        <v>1.027129405991718</v>
       </c>
       <c r="E5">
-        <v>1.013739950925555</v>
+        <v>1.016186528933428</v>
       </c>
       <c r="F5">
-        <v>1.026583205253672</v>
+        <v>1.031790882785378</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044196577420539</v>
+        <v>1.050456724442555</v>
       </c>
       <c r="J5">
-        <v>1.025292509863464</v>
+        <v>1.027690570792369</v>
       </c>
       <c r="K5">
-        <v>1.034881122890267</v>
+        <v>1.036694391216026</v>
       </c>
       <c r="L5">
-        <v>1.023454813103883</v>
+        <v>1.025873641546744</v>
       </c>
       <c r="M5">
-        <v>1.036154210439057</v>
+        <v>1.041304809752083</v>
       </c>
       <c r="N5">
-        <v>1.026748542830164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.012436876844401</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.041262376430956</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.037021783136862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006743204476414</v>
+        <v>1.009202237614232</v>
       </c>
       <c r="D6">
-        <v>1.025479314896879</v>
+        <v>1.027292824511501</v>
       </c>
       <c r="E6">
-        <v>1.013956701812205</v>
+        <v>1.016404464206319</v>
       </c>
       <c r="F6">
-        <v>1.026801584459665</v>
+        <v>1.031944104866058</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044252247698479</v>
+        <v>1.05051898278116</v>
       </c>
       <c r="J6">
-        <v>1.025449721064522</v>
+        <v>1.027849144776893</v>
       </c>
       <c r="K6">
-        <v>1.035026053613118</v>
+        <v>1.036819638738085</v>
       </c>
       <c r="L6">
-        <v>1.02363208762408</v>
+        <v>1.026052220839485</v>
       </c>
       <c r="M6">
-        <v>1.036333787257154</v>
+        <v>1.041420209622979</v>
       </c>
       <c r="N6">
-        <v>1.02690597728916</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01249696254706</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.041353707589199</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.037119123214302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005096190498121</v>
+        <v>1.007613938157743</v>
       </c>
       <c r="D7">
-        <v>1.024213476000849</v>
+        <v>1.026232272431083</v>
       </c>
       <c r="E7">
-        <v>1.012461106766321</v>
+        <v>1.014966467786989</v>
       </c>
       <c r="F7">
-        <v>1.025294701117472</v>
+        <v>1.030915658568876</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043867032682619</v>
+        <v>1.050121759102251</v>
       </c>
       <c r="J7">
-        <v>1.024364384180943</v>
+        <v>1.026818843571329</v>
       </c>
       <c r="K7">
-        <v>1.034025285175324</v>
+        <v>1.0360211805697</v>
       </c>
       <c r="L7">
-        <v>1.02240847631048</v>
+        <v>1.024884613203435</v>
       </c>
       <c r="M7">
-        <v>1.035094231148967</v>
+        <v>1.040651864062207</v>
       </c>
       <c r="N7">
-        <v>1.025819099102717</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012124536886924</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.040745614057127</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.036558760343052</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9980518613437135</v>
+        <v>1.00080200222064</v>
       </c>
       <c r="D8">
-        <v>1.018803397491258</v>
+        <v>1.021681718002659</v>
       </c>
       <c r="E8">
-        <v>1.006076348703655</v>
+        <v>1.008808831396434</v>
       </c>
       <c r="F8">
-        <v>1.018860519242307</v>
+        <v>1.026527855198705</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042195356625443</v>
+        <v>1.048384156569901</v>
       </c>
       <c r="J8">
-        <v>1.019716726283308</v>
+        <v>1.02238696565094</v>
       </c>
       <c r="K8">
-        <v>1.029734548983346</v>
+        <v>1.032575792329176</v>
       </c>
       <c r="L8">
-        <v>1.017174636293477</v>
+        <v>1.019870789017035</v>
       </c>
       <c r="M8">
-        <v>1.029790932369804</v>
+        <v>1.037360090445329</v>
       </c>
       <c r="N8">
-        <v>1.021164840997773</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010515075533772</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.038140392114924</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.034127169004586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9849777088621038</v>
+        <v>0.9881285884727529</v>
       </c>
       <c r="D9">
-        <v>1.008783148974164</v>
+        <v>1.013227772001403</v>
       </c>
       <c r="E9">
-        <v>0.9942759254195074</v>
+        <v>0.9973969623425111</v>
       </c>
       <c r="F9">
-        <v>1.006965034131541</v>
+        <v>1.018451581322848</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039003496280011</v>
+        <v>1.045035543571488</v>
       </c>
       <c r="J9">
-        <v>1.011072328068223</v>
+        <v>1.014107635930077</v>
       </c>
       <c r="K9">
-        <v>1.02173531505039</v>
+        <v>1.026109822400155</v>
       </c>
       <c r="L9">
-        <v>1.007462559481151</v>
+        <v>1.010532413667841</v>
       </c>
       <c r="M9">
-        <v>1.019946110287914</v>
+        <v>1.031252223414291</v>
       </c>
       <c r="N9">
-        <v>1.012508166745697</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.007491557116363</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.033306392541176</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.029552008962372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9757569762071325</v>
+        <v>0.9793350689370509</v>
       </c>
       <c r="D10">
-        <v>1.00173602664258</v>
+        <v>1.00739558423991</v>
       </c>
       <c r="E10">
-        <v>0.9859908898911822</v>
+        <v>0.9895266792029317</v>
       </c>
       <c r="F10">
-        <v>0.9986118001050189</v>
+        <v>1.013072020869183</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036695344162002</v>
+        <v>1.042676535412316</v>
       </c>
       <c r="J10">
-        <v>1.004966596780756</v>
+        <v>1.008393265911755</v>
       </c>
       <c r="K10">
-        <v>1.016074007176506</v>
+        <v>1.021632580769189</v>
       </c>
       <c r="L10">
-        <v>1.000617775285488</v>
+        <v>1.004087643000393</v>
       </c>
       <c r="M10">
-        <v>1.013006164246685</v>
+        <v>1.027209199986953</v>
       </c>
       <c r="N10">
-        <v>1.006393764619464</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.005434365041909</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.030158533866162</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.026403234327393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.971629668310484</v>
+        <v>0.976462204617941</v>
       </c>
       <c r="D11">
-        <v>0.9985877377670707</v>
+        <v>1.005578230253397</v>
       </c>
       <c r="E11">
-        <v>0.9822922017658259</v>
+        <v>0.9870623997991198</v>
       </c>
       <c r="F11">
-        <v>0.9948825815065964</v>
+        <v>1.012638044514098</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0356494819644</v>
+        <v>1.04213557108077</v>
       </c>
       <c r="J11">
-        <v>1.002232239744518</v>
+        <v>1.00684805998612</v>
       </c>
       <c r="K11">
-        <v>1.013536336519828</v>
+        <v>1.020395710502288</v>
       </c>
       <c r="L11">
-        <v>0.9975559700655676</v>
+        <v>1.002232495353716</v>
       </c>
       <c r="M11">
-        <v>1.009901654451827</v>
+        <v>1.027325497519295</v>
       </c>
       <c r="N11">
-        <v>1.0036555244826</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.005144653430879</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.030690735806268</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.025561946208236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9700749637054236</v>
+        <v>0.975711232622353</v>
       </c>
       <c r="D12">
-        <v>0.9974028586090746</v>
+        <v>1.005128357652953</v>
       </c>
       <c r="E12">
-        <v>0.980900508647969</v>
+        <v>0.9864617972311648</v>
       </c>
       <c r="F12">
-        <v>0.9934794122687758</v>
+        <v>1.013124021954595</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035253685249684</v>
+        <v>1.042090703790908</v>
       </c>
       <c r="J12">
-        <v>1.001202111900024</v>
+        <v>1.006580334709851</v>
       </c>
       <c r="K12">
-        <v>1.012579985472502</v>
+        <v>1.02015796156705</v>
       </c>
       <c r="L12">
-        <v>0.9964030065098354</v>
+        <v>1.001853046722179</v>
       </c>
       <c r="M12">
-        <v>1.008732611830994</v>
+        <v>1.028004032908663</v>
       </c>
       <c r="N12">
-        <v>1.002623933738409</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.005254137734961</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.031556303058815</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.025393845951681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9704094562856854</v>
+        <v>0.9765751299066627</v>
       </c>
       <c r="D13">
-        <v>0.9976577345801663</v>
+        <v>1.005730016784943</v>
       </c>
       <c r="E13">
-        <v>0.9811998578286106</v>
+        <v>0.9872841700685835</v>
       </c>
       <c r="F13">
-        <v>0.9937812290023995</v>
+        <v>1.014382429470679</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035338921935555</v>
+        <v>1.042445241457967</v>
       </c>
       <c r="J13">
-        <v>1.001423747139236</v>
+        <v>1.00730867261364</v>
       </c>
       <c r="K13">
-        <v>1.01278576143825</v>
+        <v>1.020704587978828</v>
       </c>
       <c r="L13">
-        <v>0.9966510465711449</v>
+        <v>1.002614240306796</v>
       </c>
       <c r="M13">
-        <v>1.008984110559335</v>
+        <v>1.029196049702325</v>
       </c>
       <c r="N13">
-        <v>1.002845883725083</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.005696427854663</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.032777167209456</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.025777813775282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9715016059456525</v>
+        <v>0.9778992780164809</v>
       </c>
       <c r="D14">
-        <v>0.9984901163313746</v>
+        <v>1.006619684730998</v>
       </c>
       <c r="E14">
-        <v>0.982177534687946</v>
+        <v>0.988492737247615</v>
       </c>
       <c r="F14">
-        <v>0.9947669684866355</v>
+        <v>1.015595539680471</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035616916638628</v>
+        <v>1.042868186706661</v>
       </c>
       <c r="J14">
-        <v>1.002147389420832</v>
+        <v>1.008258293442579</v>
       </c>
       <c r="K14">
-        <v>1.013457569454923</v>
+        <v>1.021434640525202</v>
       </c>
       <c r="L14">
-        <v>0.9974609912718903</v>
+        <v>1.003652234752279</v>
       </c>
       <c r="M14">
-        <v>1.009805350923528</v>
+        <v>1.030245811788911</v>
       </c>
       <c r="N14">
-        <v>1.003570553661722</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.006151844733468</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.033781142318938</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.026295439469879</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9721716038610277</v>
+        <v>0.978590703891374</v>
       </c>
       <c r="D15">
-        <v>0.9990008962847555</v>
+        <v>1.007081202298837</v>
       </c>
       <c r="E15">
-        <v>0.9827775148893926</v>
+        <v>0.9891150414209758</v>
       </c>
       <c r="F15">
-        <v>0.9953718988203991</v>
+        <v>1.016096144157104</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035787218012865</v>
+        <v>1.043068945670653</v>
       </c>
       <c r="J15">
-        <v>1.0025913053151</v>
+        <v>1.008725411613255</v>
       </c>
       <c r="K15">
-        <v>1.013869646322161</v>
+        <v>1.021799609239073</v>
       </c>
       <c r="L15">
-        <v>0.9979579181869753</v>
+        <v>1.004172105967325</v>
       </c>
       <c r="M15">
-        <v>1.010309209035945</v>
+        <v>1.030650485255683</v>
       </c>
       <c r="N15">
-        <v>1.004015099967478</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.006344808014006</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.034138687484292</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.026559431427646</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9760279375211068</v>
+        <v>0.9821545416760171</v>
       </c>
       <c r="D16">
-        <v>1.001942851545696</v>
+        <v>1.009440429305569</v>
       </c>
       <c r="E16">
-        <v>0.9862339225057107</v>
+        <v>0.9922889352060347</v>
       </c>
       <c r="F16">
-        <v>0.9988568390466743</v>
+        <v>1.018180839750348</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036763748005206</v>
+        <v>1.044020677172359</v>
       </c>
       <c r="J16">
-        <v>1.005146087532065</v>
+        <v>1.011015408065418</v>
       </c>
       <c r="K16">
-        <v>1.016240540702101</v>
+        <v>1.023605117196969</v>
       </c>
       <c r="L16">
-        <v>1.000818833563967</v>
+        <v>1.006761733408709</v>
       </c>
       <c r="M16">
-        <v>1.013210025801176</v>
+        <v>1.032193675999408</v>
       </c>
       <c r="N16">
-        <v>1.006573510268228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.007132012362258</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.035319545168594</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.027839212039928</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9784099048577978</v>
+        <v>0.9842021816298868</v>
       </c>
       <c r="D17">
-        <v>1.003761713673214</v>
+        <v>1.010791050039329</v>
       </c>
       <c r="E17">
-        <v>0.9883714951535795</v>
+        <v>0.9940996412327863</v>
       </c>
       <c r="F17">
-        <v>1.001012051293137</v>
+        <v>1.019144709089221</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037363639089501</v>
+        <v>1.044529552021735</v>
       </c>
       <c r="J17">
-        <v>1.006723809327224</v>
+        <v>1.012281281818754</v>
       </c>
       <c r="K17">
-        <v>1.01770410634093</v>
+        <v>1.024612482051304</v>
       </c>
       <c r="L17">
-        <v>1.002586533224973</v>
+        <v>1.008211922131568</v>
       </c>
       <c r="M17">
-        <v>1.015002358823376</v>
+        <v>1.032825187265498</v>
       </c>
       <c r="N17">
-        <v>1.008153472609303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.007500706502183</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.035689140387777</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.028554079459584</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9797863738104946</v>
+        <v>0.9850886428225284</v>
       </c>
       <c r="D18">
-        <v>1.004813347522311</v>
+        <v>1.011354406704746</v>
       </c>
       <c r="E18">
-        <v>0.9896076557915314</v>
+        <v>0.9948530364746664</v>
       </c>
       <c r="F18">
-        <v>1.002258403231302</v>
+        <v>1.019112104053397</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037709091540062</v>
+        <v>1.044674514496184</v>
       </c>
       <c r="J18">
-        <v>1.00763539464209</v>
+        <v>1.01272706523598</v>
       </c>
       <c r="K18">
-        <v>1.01854951035907</v>
+        <v>1.024979984851709</v>
       </c>
       <c r="L18">
-        <v>1.003608218675154</v>
+        <v>1.008761208608336</v>
       </c>
       <c r="M18">
-        <v>1.016038267230664</v>
+        <v>1.032608895595801</v>
       </c>
       <c r="N18">
-        <v>1.009066352479877</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.007512058423856</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.03527932348705</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.028802163416177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9802535680706764</v>
+        <v>0.9849046494228161</v>
       </c>
       <c r="D19">
-        <v>1.005170380380158</v>
+        <v>1.01119451734819</v>
       </c>
       <c r="E19">
-        <v>0.9900273809680573</v>
+        <v>0.9946290451247847</v>
       </c>
       <c r="F19">
-        <v>1.002681586419875</v>
+        <v>1.018114602013044</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037826136390894</v>
+        <v>1.044479950952864</v>
       </c>
       <c r="J19">
-        <v>1.007944775590763</v>
+        <v>1.012412283959709</v>
       </c>
       <c r="K19">
-        <v>1.018836391408868</v>
+        <v>1.024759254256149</v>
       </c>
       <c r="L19">
-        <v>1.003955022983562</v>
+        <v>1.008476091672541</v>
       </c>
       <c r="M19">
-        <v>1.01638989632491</v>
+        <v>1.031564904484854</v>
       </c>
       <c r="N19">
-        <v>1.009376172784984</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.007210382905875</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.034126370321105</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.028652557883781</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9781556855776912</v>
+        <v>0.9816854858790195</v>
       </c>
       <c r="D20">
-        <v>1.003567532980538</v>
+        <v>1.00897085602776</v>
       </c>
       <c r="E20">
-        <v>0.988143263182785</v>
+        <v>0.9916335527280019</v>
       </c>
       <c r="F20">
-        <v>1.000781936755366</v>
+        <v>1.014502140076749</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037299739524831</v>
+        <v>1.043325657460939</v>
       </c>
       <c r="J20">
-        <v>1.006555437815855</v>
+        <v>1.009941125126371</v>
       </c>
       <c r="K20">
-        <v>1.017547940353712</v>
+        <v>1.022857776786798</v>
       </c>
       <c r="L20">
-        <v>1.002397853028415</v>
+        <v>1.005825128825032</v>
       </c>
       <c r="M20">
-        <v>1.014811050668972</v>
+        <v>1.028294691558261</v>
       </c>
       <c r="N20">
-        <v>1.007984861991076</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.006011993499974</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.031006939219811</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.027312089361793</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9711806043546753</v>
+        <v>0.9748229666727922</v>
       </c>
       <c r="D21">
-        <v>0.9982454352977809</v>
+        <v>1.004408718691942</v>
       </c>
       <c r="E21">
-        <v>0.9818901351200788</v>
+        <v>0.9854849413014735</v>
       </c>
       <c r="F21">
-        <v>0.9944771982966024</v>
+        <v>1.010070204831199</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035535259017669</v>
+        <v>1.041411694623782</v>
       </c>
       <c r="J21">
-        <v>1.001934701455326</v>
+        <v>1.00541239242859</v>
       </c>
       <c r="K21">
-        <v>1.013260124863435</v>
+        <v>1.019307045175047</v>
       </c>
       <c r="L21">
-        <v>0.997222923472982</v>
+        <v>1.000746624558826</v>
       </c>
       <c r="M21">
-        <v>1.009563962739227</v>
+        <v>1.024863273065642</v>
       </c>
       <c r="N21">
-        <v>1.003357563654909</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.004329919530208</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.028249897251242</v>
+      </c>
+      <c r="Q21">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R21">
+        <v>1.024804824022323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9666691074111837</v>
+        <v>0.9704279169971475</v>
       </c>
       <c r="D22">
-        <v>0.9948092357159085</v>
+        <v>1.001491526851918</v>
       </c>
       <c r="E22">
-        <v>0.9778547213163106</v>
+        <v>0.9815597347583158</v>
       </c>
       <c r="F22">
-        <v>0.9904085584449539</v>
+        <v>1.007335977514996</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03438333412654</v>
+        <v>1.04018327249208</v>
       </c>
       <c r="J22">
-        <v>0.9989452808918079</v>
+        <v>1.002523255929051</v>
       </c>
       <c r="K22">
-        <v>1.010484228796911</v>
+        <v>1.017033494097962</v>
       </c>
       <c r="L22">
-        <v>0.9938780266180345</v>
+        <v>0.9975055669141025</v>
       </c>
       <c r="M22">
-        <v>1.006172448709359</v>
+        <v>1.022763494747855</v>
       </c>
       <c r="N22">
-        <v>1.000363897771299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.003263372149233</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.026588032604066</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.02318360064932</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9690731828751</v>
+        <v>0.9727478720271915</v>
       </c>
       <c r="D23">
-        <v>0.9966396865904863</v>
+        <v>1.003024390570025</v>
       </c>
       <c r="E23">
-        <v>0.9800042146337</v>
+        <v>0.9836287865193533</v>
       </c>
       <c r="F23">
-        <v>0.9925757337010228</v>
+        <v>1.00878213753707</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034998144912898</v>
+        <v>1.040828628007326</v>
       </c>
       <c r="J23">
-        <v>1.000538317467364</v>
+        <v>1.004041915336657</v>
       </c>
       <c r="K23">
-        <v>1.011963644575688</v>
+        <v>1.01822474240614</v>
       </c>
       <c r="L23">
-        <v>0.9956602067027983</v>
+        <v>0.9992111740283752</v>
       </c>
       <c r="M23">
-        <v>1.007979456533315</v>
+        <v>1.023872774478812</v>
       </c>
       <c r="N23">
-        <v>1.001959196641516</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.003816954401274</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.027465969958143</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.024016110193904</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9782705960649659</v>
+        <v>0.9816617153690963</v>
       </c>
       <c r="D24">
-        <v>1.003655303480659</v>
+        <v>1.008937188929793</v>
       </c>
       <c r="E24">
-        <v>0.9882464242129868</v>
+        <v>0.9915996749228226</v>
       </c>
       <c r="F24">
-        <v>1.000885948739211</v>
+        <v>1.014363367399199</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03732862672603</v>
+        <v>1.043288533081238</v>
       </c>
       <c r="J24">
-        <v>1.006631544393283</v>
+        <v>1.009884426582129</v>
       </c>
       <c r="K24">
-        <v>1.017618530537453</v>
+        <v>1.0228091544648</v>
       </c>
       <c r="L24">
-        <v>1.002483138416308</v>
+        <v>1.005775933304526</v>
       </c>
       <c r="M24">
-        <v>1.014897523967478</v>
+        <v>1.028142855513795</v>
       </c>
       <c r="N24">
-        <v>1.008061076648574</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.005957207664692</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.030845507113685</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.027249986822069</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9884419318271449</v>
+        <v>0.9915209214206167</v>
       </c>
       <c r="D25">
-        <v>1.011435217412065</v>
+        <v>1.015498418832151</v>
       </c>
       <c r="E25">
-        <v>0.9973965187917252</v>
+        <v>1.000448939280189</v>
       </c>
       <c r="F25">
-        <v>1.010111097148448</v>
+        <v>1.020595982988848</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039859285748039</v>
+        <v>1.045951900024613</v>
       </c>
       <c r="J25">
-        <v>1.01336463164479</v>
+        <v>1.01633704904788</v>
       </c>
       <c r="K25">
-        <v>1.023858572529812</v>
+        <v>1.027860813234915</v>
       </c>
       <c r="L25">
-        <v>1.010035385345557</v>
+        <v>1.013040290039882</v>
       </c>
       <c r="M25">
-        <v>1.022554453179498</v>
+        <v>1.032882769982821</v>
       </c>
       <c r="N25">
-        <v>1.014803725656273</v>
+        <v>1.008317276255808</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.034596872690847</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.030818940135553</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_56/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.998979015202524</v>
+        <v>0.9995709445584563</v>
       </c>
       <c r="D2">
-        <v>1.020456016368307</v>
+        <v>1.020556580929041</v>
       </c>
       <c r="E2">
-        <v>1.007161456917471</v>
+        <v>1.007749373778441</v>
       </c>
       <c r="F2">
-        <v>1.025364740944724</v>
+        <v>1.025569048571982</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047905028904126</v>
+        <v>1.047960365070298</v>
       </c>
       <c r="J2">
-        <v>1.021190306690614</v>
+        <v>1.021764496177055</v>
       </c>
       <c r="K2">
-        <v>1.031637536658758</v>
+        <v>1.031736769966472</v>
       </c>
       <c r="L2">
-        <v>1.018521914802242</v>
+        <v>1.019101793003606</v>
       </c>
       <c r="M2">
-        <v>1.036481662353135</v>
+        <v>1.036683298083909</v>
       </c>
       <c r="N2">
-        <v>1.010071524824234</v>
+        <v>1.012445715202514</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.037445172552718</v>
+        <v>1.037604754376591</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.033440681399937</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.033519681764973</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020354129111573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004245182252441</v>
+        <v>1.004419057729524</v>
       </c>
       <c r="D3">
-        <v>1.023972831271318</v>
+        <v>1.023659045991283</v>
       </c>
       <c r="E3">
-        <v>1.011916857281304</v>
+        <v>1.012089758086136</v>
       </c>
       <c r="F3">
-        <v>1.028747039970569</v>
+        <v>1.028767483963037</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049262226300989</v>
+        <v>1.049108701501088</v>
       </c>
       <c r="J3">
-        <v>1.024620784533471</v>
+        <v>1.024789975430776</v>
       </c>
       <c r="K3">
-        <v>1.034307895365199</v>
+        <v>1.033997896380229</v>
       </c>
       <c r="L3">
-        <v>1.022399496946989</v>
+        <v>1.022570250350278</v>
       </c>
       <c r="M3">
-        <v>1.039024849286939</v>
+        <v>1.039045049521234</v>
       </c>
       <c r="N3">
-        <v>1.01131963681696</v>
+        <v>1.01330328267133</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.039457940238308</v>
+        <v>1.039473927392345</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.035326204803164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.035115552898383</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020871960057853</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007574542780421</v>
+        <v>1.00748866021845</v>
       </c>
       <c r="D4">
-        <v>1.02619871370126</v>
+        <v>1.025625765742713</v>
       </c>
       <c r="E4">
-        <v>1.014928928102496</v>
+        <v>1.014843465792113</v>
       </c>
       <c r="F4">
-        <v>1.030894727433666</v>
+        <v>1.030800857352959</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050106497725358</v>
+        <v>1.049822131839096</v>
       </c>
       <c r="J4">
-        <v>1.026786455723413</v>
+        <v>1.026702725962995</v>
       </c>
       <c r="K4">
-        <v>1.035990900499635</v>
+        <v>1.035424443403925</v>
       </c>
       <c r="L4">
-        <v>1.024850452205481</v>
+        <v>1.024765984266918</v>
       </c>
       <c r="M4">
-        <v>1.040634048402182</v>
+        <v>1.040541229264456</v>
       </c>
       <c r="N4">
-        <v>1.012106710743197</v>
+        <v>1.013845260325589</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.040731514161387</v>
+        <v>1.040658054057064</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.036517150436179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036125235040857</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021196060997717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008962545464686</v>
+        <v>1.008768789125499</v>
       </c>
       <c r="D5">
-        <v>1.027129405991718</v>
+        <v>1.026448701409612</v>
       </c>
       <c r="E5">
-        <v>1.016186528933428</v>
+        <v>1.015993664721472</v>
       </c>
       <c r="F5">
-        <v>1.031790882785378</v>
+        <v>1.031649551745656</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050456724442555</v>
+        <v>1.050117905164224</v>
       </c>
       <c r="J5">
-        <v>1.027690570792369</v>
+        <v>1.027501522168195</v>
       </c>
       <c r="K5">
-        <v>1.036694391216026</v>
+        <v>1.03602119023973</v>
       </c>
       <c r="L5">
-        <v>1.025873641546744</v>
+        <v>1.025682958857545</v>
       </c>
       <c r="M5">
-        <v>1.041304809752083</v>
+        <v>1.041165018419581</v>
       </c>
       <c r="N5">
-        <v>1.012436876844401</v>
+        <v>1.014072684111505</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.041262376430956</v>
+        <v>1.041151741072405</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.037021783136862</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.036555098648503</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021331945566493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009202237614232</v>
+        <v>1.008989172737822</v>
       </c>
       <c r="D6">
-        <v>1.027292824511501</v>
+        <v>1.026593121549169</v>
       </c>
       <c r="E6">
-        <v>1.016404464206319</v>
+        <v>1.01619237011732</v>
       </c>
       <c r="F6">
-        <v>1.031944104866058</v>
+        <v>1.031794312346404</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.05051898278116</v>
+        <v>1.050170557766771</v>
       </c>
       <c r="J6">
-        <v>1.027849144776893</v>
+        <v>1.027641229357265</v>
       </c>
       <c r="K6">
-        <v>1.036819638738085</v>
+        <v>1.036127612958203</v>
       </c>
       <c r="L6">
-        <v>1.026052220839485</v>
+        <v>1.02584251427956</v>
       </c>
       <c r="M6">
-        <v>1.041420209622979</v>
+        <v>1.041272041439939</v>
       </c>
       <c r="N6">
-        <v>1.01249696254706</v>
+        <v>1.014113837826691</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.041353707589199</v>
+        <v>1.041236442535872</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.037119123214302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.036639996188557</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021357283233845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,105 +749,123 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007613938157743</v>
+        <v>1.007536059762654</v>
       </c>
       <c r="D7">
-        <v>1.026232272431083</v>
+        <v>1.025664454711177</v>
       </c>
       <c r="E7">
-        <v>1.014966467786989</v>
+        <v>1.01488897012238</v>
       </c>
       <c r="F7">
-        <v>1.030915658568876</v>
+        <v>1.030825316436589</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050121759102251</v>
+        <v>1.049840102034654</v>
       </c>
       <c r="J7">
-        <v>1.026818843571329</v>
+        <v>1.026742916398872</v>
       </c>
       <c r="K7">
-        <v>1.0360211805697</v>
+        <v>1.035459792887299</v>
       </c>
       <c r="L7">
-        <v>1.024884613203435</v>
+        <v>1.024808016847257</v>
       </c>
       <c r="M7">
-        <v>1.040651864062207</v>
+        <v>1.040562532983008</v>
       </c>
       <c r="N7">
-        <v>1.012124536886924</v>
+        <v>1.013888157656763</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.040745614057127</v>
+        <v>1.040674914518032</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.036558760343052</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036172426837804</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021208697705219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C8">
-        <v>1.00080200222064</v>
+        <v>1.001286159249697</v>
       </c>
       <c r="D8">
-        <v>1.021681718002659</v>
+        <v>1.021665889528448</v>
       </c>
       <c r="E8">
-        <v>1.008808831396434</v>
+        <v>1.009289903966461</v>
       </c>
       <c r="F8">
-        <v>1.026527855198705</v>
+        <v>1.026684708518717</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048384156569901</v>
+        <v>1.048381259911435</v>
       </c>
       <c r="J8">
-        <v>1.02238696565094</v>
+        <v>1.022857118433404</v>
       </c>
       <c r="K8">
-        <v>1.032575792329176</v>
+        <v>1.032560167035664</v>
       </c>
       <c r="L8">
-        <v>1.019870789017035</v>
+        <v>1.020345490993953</v>
       </c>
       <c r="M8">
-        <v>1.037360090445329</v>
+        <v>1.037514954417811</v>
       </c>
       <c r="N8">
-        <v>1.010515075533772</v>
+        <v>1.012845188593003</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.038140392114924</v>
+        <v>1.038262956958266</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.034127169004586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.034127210080843</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020551991896343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9881285884727529</v>
+        <v>0.9896576253998918</v>
       </c>
       <c r="D9">
-        <v>1.013227772001403</v>
+        <v>1.014233568275195</v>
       </c>
       <c r="E9">
-        <v>0.9973969623425111</v>
+        <v>0.9989116699444943</v>
       </c>
       <c r="F9">
-        <v>1.018451581322848</v>
+        <v>1.01906750883629</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045035543571488</v>
+        <v>1.045546455719128</v>
       </c>
       <c r="J9">
-        <v>1.014107635930077</v>
+        <v>1.015580961166704</v>
       </c>
       <c r="K9">
-        <v>1.026109822400155</v>
+        <v>1.027099860891158</v>
       </c>
       <c r="L9">
-        <v>1.010532413667841</v>
+        <v>1.012022429257842</v>
       </c>
       <c r="M9">
-        <v>1.031252223414291</v>
+        <v>1.031858622507223</v>
       </c>
       <c r="N9">
-        <v>1.007491557116363</v>
+        <v>1.010788956691105</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.033306392541176</v>
+        <v>1.033786321454626</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.029552008962372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.030262890093256</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019284400509115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9793350689370509</v>
+        <v>0.9816656381725821</v>
       </c>
       <c r="D10">
-        <v>1.00739558423991</v>
+        <v>1.009162016912606</v>
       </c>
       <c r="E10">
-        <v>0.9895266792029317</v>
+        <v>0.9918300516920555</v>
       </c>
       <c r="F10">
-        <v>1.013072020869183</v>
+        <v>1.014039712920267</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042676535412316</v>
+        <v>1.043569506928451</v>
       </c>
       <c r="J10">
-        <v>1.008393265911755</v>
+        <v>1.010626050755408</v>
       </c>
       <c r="K10">
-        <v>1.021632580769189</v>
+        <v>1.023367795533245</v>
       </c>
       <c r="L10">
-        <v>1.004087643000393</v>
+        <v>1.006348400682235</v>
       </c>
       <c r="M10">
-        <v>1.027209199986953</v>
+        <v>1.028160019988759</v>
       </c>
       <c r="N10">
-        <v>1.005434365041909</v>
+        <v>1.009528693964486</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.030158533866162</v>
+        <v>1.030911006913291</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.026403234327393</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.027642707935699</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.01842523121726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.976462204617941</v>
+        <v>0.9790292557104688</v>
       </c>
       <c r="D11">
-        <v>1.005578230253397</v>
+        <v>1.007576790230741</v>
       </c>
       <c r="E11">
-        <v>0.9870623997991198</v>
+        <v>0.9895968699804171</v>
       </c>
       <c r="F11">
-        <v>1.012638044514098</v>
+        <v>1.013710162089142</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04213557108077</v>
+        <v>1.043146295760419</v>
       </c>
       <c r="J11">
-        <v>1.00684805998612</v>
+        <v>1.00930123518622</v>
       </c>
       <c r="K11">
-        <v>1.020395710502288</v>
+        <v>1.022357220076522</v>
       </c>
       <c r="L11">
-        <v>1.002232495353716</v>
+        <v>1.00471767743352</v>
       </c>
       <c r="M11">
-        <v>1.027325497519295</v>
+        <v>1.028378075018839</v>
       </c>
       <c r="N11">
-        <v>1.005144653430879</v>
+        <v>1.009558348911322</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.030690735806268</v>
+        <v>1.031523312452487</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.025561946208236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.026964613368377</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018299613638849</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.975711232622353</v>
+        <v>0.9782990275749465</v>
       </c>
       <c r="D12">
-        <v>1.005128357652953</v>
+        <v>1.007159115428092</v>
       </c>
       <c r="E12">
-        <v>0.9864617972311648</v>
+        <v>0.9890157806103226</v>
       </c>
       <c r="F12">
-        <v>1.013124021954595</v>
+        <v>1.014206277383523</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042090703790908</v>
+        <v>1.043118203140834</v>
       </c>
       <c r="J12">
-        <v>1.006580334709851</v>
+        <v>1.009051078794576</v>
       </c>
       <c r="K12">
-        <v>1.02015796156705</v>
+        <v>1.022150431457152</v>
       </c>
       <c r="L12">
-        <v>1.001853046722179</v>
+        <v>1.004356490568341</v>
       </c>
       <c r="M12">
-        <v>1.028004032908663</v>
+        <v>1.029066276363932</v>
       </c>
       <c r="N12">
-        <v>1.005254137734961</v>
+        <v>1.009713358806561</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.031556303058815</v>
+        <v>1.032396236804262</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.025393845951681</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.026818407248467</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018323903934572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9765751299066627</v>
+        <v>0.9789942768387583</v>
       </c>
       <c r="D13">
-        <v>1.005730016784943</v>
+        <v>1.007623764002325</v>
       </c>
       <c r="E13">
-        <v>0.9872841700685835</v>
+        <v>0.9896719890110188</v>
       </c>
       <c r="F13">
-        <v>1.014382429470679</v>
+        <v>1.015392804734832</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042445241457967</v>
+        <v>1.043404158928729</v>
       </c>
       <c r="J13">
-        <v>1.00730867261364</v>
+        <v>1.009619048715207</v>
       </c>
       <c r="K13">
-        <v>1.020704587978828</v>
+        <v>1.022562799509872</v>
       </c>
       <c r="L13">
-        <v>1.002614240306796</v>
+        <v>1.004955059731007</v>
       </c>
       <c r="M13">
-        <v>1.029196049702325</v>
+        <v>1.030187863060865</v>
       </c>
       <c r="N13">
-        <v>1.005696427854663</v>
+        <v>1.009947029154833</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.032777167209456</v>
+        <v>1.03356121160865</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.025777813775282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.027107200632048</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018473063889889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9778992780164809</v>
+        <v>0.9801194785745514</v>
       </c>
       <c r="D14">
-        <v>1.006619684730998</v>
+        <v>1.008345171480342</v>
       </c>
       <c r="E14">
-        <v>0.988492737247615</v>
+        <v>0.9906848542866366</v>
       </c>
       <c r="F14">
-        <v>1.015595539680471</v>
+        <v>1.016520872890954</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042868186706661</v>
+        <v>1.043742630950462</v>
       </c>
       <c r="J14">
-        <v>1.008258293442579</v>
+        <v>1.010380226981662</v>
       </c>
       <c r="K14">
-        <v>1.021434640525202</v>
+        <v>1.023128172332884</v>
       </c>
       <c r="L14">
-        <v>1.003652234752279</v>
+        <v>1.005801807613448</v>
       </c>
       <c r="M14">
-        <v>1.030245811788911</v>
+        <v>1.031154382569146</v>
       </c>
       <c r="N14">
-        <v>1.006151844733468</v>
+        <v>1.010146678336888</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.033781142318938</v>
+        <v>1.034499284644062</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.026295439469879</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.027508516932008</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018633672103337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.978590703891374</v>
+        <v>0.9807201554816098</v>
       </c>
       <c r="D15">
-        <v>1.007081202298837</v>
+        <v>1.008727883998155</v>
       </c>
       <c r="E15">
-        <v>0.9891150414209758</v>
+        <v>0.9912179354444126</v>
       </c>
       <c r="F15">
-        <v>1.016096144157104</v>
+        <v>1.016982451715434</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043068945670653</v>
+        <v>1.043903769778715</v>
       </c>
       <c r="J15">
-        <v>1.008725411613255</v>
+        <v>1.01076149731442</v>
       </c>
       <c r="K15">
-        <v>1.021799609239073</v>
+        <v>1.023416037351822</v>
       </c>
       <c r="L15">
-        <v>1.004172105967325</v>
+        <v>1.006234530417964</v>
       </c>
       <c r="M15">
-        <v>1.030650485255683</v>
+        <v>1.031520866642878</v>
       </c>
       <c r="N15">
-        <v>1.006344808014006</v>
+        <v>1.010222800162106</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.034138687484292</v>
+        <v>1.034826626455891</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.026559431427646</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.027718553707764</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018706023869733</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9821545416760171</v>
+        <v>0.9838888809323769</v>
       </c>
       <c r="D16">
-        <v>1.009440429305569</v>
+        <v>1.010729370532752</v>
       </c>
       <c r="E16">
-        <v>0.9922889352060347</v>
+        <v>0.9940033573749578</v>
       </c>
       <c r="F16">
-        <v>1.018180839750348</v>
+        <v>1.018895060394117</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044020677172359</v>
+        <v>1.044675399269789</v>
       </c>
       <c r="J16">
-        <v>1.011015408065418</v>
+        <v>1.012677741569207</v>
       </c>
       <c r="K16">
-        <v>1.023605117196969</v>
+        <v>1.024871451107291</v>
       </c>
       <c r="L16">
-        <v>1.006761733408709</v>
+        <v>1.008444734873899</v>
       </c>
       <c r="M16">
-        <v>1.032193675999408</v>
+        <v>1.032895636934879</v>
       </c>
       <c r="N16">
-        <v>1.007132012362258</v>
+        <v>1.010518786508444</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.035319545168594</v>
+        <v>1.035874382781412</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.027839212039928</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.02875108457714</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019027627728843</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9842021816298868</v>
+        <v>0.9857508669351943</v>
       </c>
       <c r="D17">
-        <v>1.010791050039329</v>
+        <v>1.01190223504115</v>
       </c>
       <c r="E17">
-        <v>0.9940996412327863</v>
+        <v>0.9956314573613856</v>
       </c>
       <c r="F17">
-        <v>1.019144709089221</v>
+        <v>1.019776887024424</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044529552021735</v>
+        <v>1.045094644312298</v>
       </c>
       <c r="J17">
-        <v>1.012281281818754</v>
+        <v>1.013767849564769</v>
       </c>
       <c r="K17">
-        <v>1.024612482051304</v>
+        <v>1.025704744424976</v>
       </c>
       <c r="L17">
-        <v>1.008211922131568</v>
+        <v>1.009716518985507</v>
       </c>
       <c r="M17">
-        <v>1.032825187265498</v>
+        <v>1.033446819353436</v>
       </c>
       <c r="N17">
-        <v>1.007500706502183</v>
+        <v>1.010674525702831</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.035689140387777</v>
+        <v>1.03618053452169</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.028554079459584</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.029343113518334</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019193338528142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9850886428225284</v>
+        <v>0.9866038395557233</v>
       </c>
       <c r="D18">
-        <v>1.011354406704746</v>
+        <v>1.012419997677276</v>
       </c>
       <c r="E18">
-        <v>0.9948530364746664</v>
+        <v>0.9963522218287638</v>
       </c>
       <c r="F18">
-        <v>1.019112104053397</v>
+        <v>1.01972749199461</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044674514496184</v>
+        <v>1.04521629202551</v>
       </c>
       <c r="J18">
-        <v>1.01272706523598</v>
+        <v>1.014182668498133</v>
       </c>
       <c r="K18">
-        <v>1.024979984851709</v>
+        <v>1.026027735119592</v>
       </c>
       <c r="L18">
-        <v>1.008761208608336</v>
+        <v>1.010234219153171</v>
       </c>
       <c r="M18">
-        <v>1.032608895595801</v>
+        <v>1.033214175269772</v>
       </c>
       <c r="N18">
-        <v>1.007512058423856</v>
+        <v>1.010660828896398</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.03527932348705</v>
+        <v>1.035757891739911</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.028802163416177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.029558594635389</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019220323805302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9849046494228161</v>
+        <v>0.9865143214735318</v>
       </c>
       <c r="D19">
-        <v>1.01119451734819</v>
+        <v>1.012329207110013</v>
       </c>
       <c r="E19">
-        <v>0.9946290451247847</v>
+        <v>0.9962218519289213</v>
       </c>
       <c r="F19">
-        <v>1.018114602013044</v>
+        <v>1.018768943655107</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044479950952864</v>
+        <v>1.04505591508271</v>
       </c>
       <c r="J19">
-        <v>1.012412283959709</v>
+        <v>1.013958993793554</v>
       </c>
       <c r="K19">
-        <v>1.024759254256149</v>
+        <v>1.025875042041193</v>
       </c>
       <c r="L19">
-        <v>1.008476091672541</v>
+        <v>1.010041225862271</v>
       </c>
       <c r="M19">
-        <v>1.031564904484854</v>
+        <v>1.03220852898241</v>
       </c>
       <c r="N19">
-        <v>1.007210382905875</v>
+        <v>1.01047698857668</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.034126370321105</v>
+        <v>1.034635424269733</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.028652557883781</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.029457715876079</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019120990836629</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9816854858790195</v>
+        <v>0.9837534883340728</v>
       </c>
       <c r="D20">
-        <v>1.00897085602776</v>
+        <v>1.010500016061462</v>
       </c>
       <c r="E20">
-        <v>0.9916335527280019</v>
+        <v>0.9936786929496324</v>
       </c>
       <c r="F20">
-        <v>1.014502140076749</v>
+        <v>1.015354966587196</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043325657460939</v>
+        <v>1.044099124158101</v>
       </c>
       <c r="J20">
-        <v>1.009941125126371</v>
+        <v>1.011925377316511</v>
       </c>
       <c r="K20">
-        <v>1.022857776786798</v>
+        <v>1.024360714300639</v>
       </c>
       <c r="L20">
-        <v>1.005825128825032</v>
+        <v>1.007833613147526</v>
       </c>
       <c r="M20">
-        <v>1.028294691558261</v>
+        <v>1.029133086031768</v>
       </c>
       <c r="N20">
-        <v>1.006011993499974</v>
+        <v>1.009796875813153</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.031006939219811</v>
+        <v>1.031670447319072</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.027312089361793</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.028391380006556</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018659189634509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9748229666727922</v>
+        <v>0.9777421899434143</v>
       </c>
       <c r="D21">
-        <v>1.004408718691942</v>
+        <v>1.006694218320763</v>
       </c>
       <c r="E21">
-        <v>0.9854849413014735</v>
+        <v>0.9883665943684666</v>
       </c>
       <c r="F21">
-        <v>1.010070204831199</v>
+        <v>1.011296763816603</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I21">
-        <v>1.041411694623782</v>
+        <v>1.042566485180215</v>
       </c>
       <c r="J21">
-        <v>1.00541239242859</v>
+        <v>1.008200904922781</v>
       </c>
       <c r="K21">
-        <v>1.019307045175047</v>
+        <v>1.021549866924114</v>
       </c>
       <c r="L21">
-        <v>1.000746624558826</v>
+        <v>1.003571768615172</v>
       </c>
       <c r="M21">
-        <v>1.024863273065642</v>
+        <v>1.026067230250892</v>
       </c>
       <c r="N21">
-        <v>1.004329919530208</v>
+        <v>1.009186277668839</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.028249897251242</v>
+        <v>1.029202764545186</v>
       </c>
       <c r="Q21">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.024804824022323</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.026407599556584</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018012367229332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9704279169971475</v>
+        <v>0.9738977003580556</v>
       </c>
       <c r="D22">
-        <v>1.001491526851918</v>
+        <v>1.004265153300927</v>
       </c>
       <c r="E22">
-        <v>0.9815597347583158</v>
+        <v>0.984980635010314</v>
       </c>
       <c r="F22">
-        <v>1.007335977514996</v>
+        <v>1.008804605398348</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04018327249208</v>
+        <v>1.041583922816861</v>
       </c>
       <c r="J22">
-        <v>1.002523255929051</v>
+        <v>1.005827892292497</v>
       </c>
       <c r="K22">
-        <v>1.017033494097962</v>
+        <v>1.019752587558399</v>
       </c>
       <c r="L22">
-        <v>0.9975055669141025</v>
+        <v>1.000855617942565</v>
       </c>
       <c r="M22">
-        <v>1.022763494747855</v>
+        <v>1.024203636170973</v>
       </c>
       <c r="N22">
-        <v>1.003263372149233</v>
+        <v>1.008796935140169</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.026588032604066</v>
+        <v>1.027727829603967</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.02318360064932</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.025121863980075</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017600196900988</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9727478720271915</v>
+        <v>0.975905534179982</v>
       </c>
       <c r="D23">
-        <v>1.003024390570025</v>
+        <v>1.005524185347529</v>
       </c>
       <c r="E23">
-        <v>0.9836287865193533</v>
+        <v>0.9867440213524233</v>
       </c>
       <c r="F23">
-        <v>1.00878213753707</v>
+        <v>1.010113274121822</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.040828628007326</v>
+        <v>1.042091165695116</v>
       </c>
       <c r="J23">
-        <v>1.004041915336657</v>
+        <v>1.007054035390465</v>
       </c>
       <c r="K23">
-        <v>1.01822474240614</v>
+        <v>1.02067670123399</v>
       </c>
       <c r="L23">
-        <v>0.9992111740283752</v>
+        <v>1.00226371593254</v>
       </c>
       <c r="M23">
-        <v>1.023872774478812</v>
+        <v>1.02517877858128</v>
       </c>
       <c r="N23">
-        <v>1.003816954401274</v>
+        <v>1.008945555837667</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.027465969958143</v>
+        <v>1.028499603008019</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.024016110193904</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.025764554713139</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.017805822694072</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9816617153690963</v>
+        <v>0.9837464403307068</v>
       </c>
       <c r="D24">
-        <v>1.008937188929793</v>
+        <v>1.01047829700181</v>
       </c>
       <c r="E24">
-        <v>0.9915996749228226</v>
+        <v>0.993661401164677</v>
       </c>
       <c r="F24">
-        <v>1.014363367399199</v>
+        <v>1.015223276555786</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043288533081238</v>
+        <v>1.044067950405842</v>
       </c>
       <c r="J24">
-        <v>1.009884426582129</v>
+        <v>1.01188483945022</v>
       </c>
       <c r="K24">
-        <v>1.0228091544648</v>
+        <v>1.024323867236355</v>
       </c>
       <c r="L24">
-        <v>1.005775933304526</v>
+        <v>1.00780075165173</v>
       </c>
       <c r="M24">
-        <v>1.028142855513795</v>
+        <v>1.028988226460221</v>
       </c>
       <c r="N24">
-        <v>1.005957207664692</v>
+        <v>1.009761234421741</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.030845507113685</v>
+        <v>1.031514570337504</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.027249986822069</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.028334956420746</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018636470430132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9915209214206167</v>
+        <v>0.9927445196524814</v>
       </c>
       <c r="D25">
-        <v>1.015498418832151</v>
+        <v>1.016213269186881</v>
       </c>
       <c r="E25">
-        <v>1.000448939280189</v>
+        <v>1.001662082498315</v>
       </c>
       <c r="F25">
-        <v>1.020595982988848</v>
+        <v>1.021078009227869</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045951900024613</v>
+        <v>1.046316498464595</v>
       </c>
       <c r="J25">
-        <v>1.01633704904788</v>
+        <v>1.017518551323719</v>
       </c>
       <c r="K25">
-        <v>1.027860813234915</v>
+        <v>1.028565002731693</v>
       </c>
       <c r="L25">
-        <v>1.013040290039882</v>
+        <v>1.014234651454154</v>
       </c>
       <c r="M25">
-        <v>1.032882769982821</v>
+        <v>1.033357696392103</v>
       </c>
       <c r="N25">
-        <v>1.008317276255808</v>
+        <v>1.011310253991122</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.034596872690847</v>
+        <v>1.034972748112531</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.030818940135553</v>
+        <v>1.031330480020905</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019630110298996</v>
       </c>
     </row>
   </sheetData>
